--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_17_0.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_17_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3931773.086806012</v>
+        <v>-3932510.609204713</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1608023.069889033</v>
+        <v>1608023.069889032</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>590120.9651681858</v>
+        <v>590120.9651681855</v>
       </c>
     </row>
     <row r="9">
@@ -1370,7 +1370,7 @@
         <v>261.5378344848627</v>
       </c>
       <c r="C11" t="n">
-        <v>78.5126425619635</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>210.5689976340753</v>
       </c>
       <c r="I11" t="n">
         <v>62.73160841495374</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>71.67916269171009</v>
+        <v>71.67916269170991</v>
       </c>
       <c r="T11" t="n">
-        <v>98.47994477460605</v>
+        <v>98.47994477460624</v>
       </c>
       <c r="U11" t="n">
         <v>129.2570343856665</v>
@@ -1433,7 +1433,7 @@
         <v>228.3515414940222</v>
       </c>
       <c r="X11" t="n">
-        <v>248.683023624637</v>
+        <v>116.6266685525259</v>
       </c>
       <c r="Y11" t="n">
         <v>264.5084962447035</v>
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>43.19355010381247</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C12" t="n">
-        <v>83.57056745636709</v>
+        <v>48.84700842086863</v>
       </c>
       <c r="D12" t="n">
         <v>23.93384806811321</v>
@@ -1506,16 +1506,16 @@
         <v>224.6386291975415</v>
       </c>
       <c r="V12" t="n">
-        <v>231.9087310396551</v>
+        <v>144.4537145686212</v>
       </c>
       <c r="W12" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X12" t="n">
-        <v>82.28305410194591</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y12" t="n">
-        <v>203.671151418586</v>
+        <v>81.49257591205367</v>
       </c>
     </row>
     <row r="13">
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>40.58502799526201</v>
+        <v>40.58502799526198</v>
       </c>
       <c r="S13" t="n">
-        <v>96.05974488593893</v>
+        <v>96.05974488593934</v>
       </c>
       <c r="T13" t="n">
         <v>105.1439944560723</v>
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>261.5378344848627</v>
+        <v>129.4814794127514</v>
       </c>
       <c r="C14" t="n">
-        <v>78.51264256196349</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1622,10 +1622,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>210.5689976340753</v>
       </c>
       <c r="I14" t="n">
-        <v>62.73160841495374</v>
+        <v>62.73160841495375</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.67916269170991</v>
+        <v>71.67916269171009</v>
       </c>
       <c r="T14" t="n">
-        <v>98.47994477460601</v>
+        <v>98.47994477460607</v>
       </c>
       <c r="U14" t="n">
-        <v>129.2570343856667</v>
+        <v>129.2570343856665</v>
       </c>
       <c r="V14" t="n">
         <v>206.354646015987</v>
@@ -1683,22 +1683,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>43.19355010381247</v>
+        <v>43.19355010381248</v>
       </c>
       <c r="C15" t="n">
-        <v>48.84700842086863</v>
+        <v>48.84700842086865</v>
       </c>
       <c r="D15" t="n">
-        <v>23.93384806811321</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E15" t="n">
-        <v>68.57841723613994</v>
+        <v>33.85485820064149</v>
       </c>
       <c r="F15" t="n">
-        <v>21.32765657701694</v>
+        <v>21.32765657701695</v>
       </c>
       <c r="G15" t="n">
-        <v>13.56270707968252</v>
+        <v>13.56270707968254</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>77.19073690091015</v>
       </c>
       <c r="S15" t="n">
-        <v>163.724932038389</v>
+        <v>76.26991556735504</v>
       </c>
       <c r="T15" t="n">
         <v>197.246165760451</v>
@@ -1743,13 +1743,13 @@
         <v>224.6386291975415</v>
       </c>
       <c r="V15" t="n">
-        <v>231.9087310396551</v>
+        <v>109.7301555331228</v>
       </c>
       <c r="W15" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X15" t="n">
-        <v>82.28305410194591</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y15" t="n">
         <v>203.671151418586</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>57.90511598415145</v>
+        <v>57.90511598415146</v>
       </c>
       <c r="C16" t="n">
-        <v>45.15797742466998</v>
+        <v>45.15797742466999</v>
       </c>
       <c r="D16" t="n">
-        <v>26.826991007987</v>
+        <v>26.82699100798702</v>
       </c>
       <c r="E16" t="n">
-        <v>24.79604866666682</v>
+        <v>24.79604866666683</v>
       </c>
       <c r="F16" t="n">
-        <v>23.98044590327214</v>
+        <v>23.98044590327216</v>
       </c>
       <c r="G16" t="n">
-        <v>45.4746547785133</v>
+        <v>45.47465477851331</v>
       </c>
       <c r="H16" t="n">
-        <v>37.35405327628416</v>
+        <v>37.35405327628418</v>
       </c>
       <c r="I16" t="n">
-        <v>24.4720222193585</v>
+        <v>24.47202221935784</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>40.58502799526201</v>
+        <v>40.585027995262</v>
       </c>
       <c r="S16" t="n">
-        <v>96.05974488593893</v>
+        <v>96.05974488593894</v>
       </c>
       <c r="T16" t="n">
         <v>105.1439944560723</v>
@@ -1831,7 +1831,7 @@
         <v>103.9617844257769</v>
       </c>
       <c r="Y16" t="n">
-        <v>96.57009836123586</v>
+        <v>96.57009836123588</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>160.1543066784409</v>
       </c>
       <c r="C17" t="n">
-        <v>143.4229923659885</v>
+        <v>143.4229923659883</v>
       </c>
       <c r="D17" t="n">
         <v>133.0426294416443</v>
@@ -1920,13 +1920,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D18" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>156.0334337071738</v>
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>135.7412825862149</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1980,16 +1980,16 @@
         <v>224.6386291975415</v>
       </c>
       <c r="V18" t="n">
-        <v>231.9087310396551</v>
+        <v>60.30430308679096</v>
       </c>
       <c r="W18" t="n">
-        <v>249.98934675</v>
+        <v>26.42724343704595</v>
       </c>
       <c r="X18" t="n">
-        <v>67.51025313813136</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="19">
@@ -2157,13 +2157,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C21" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E21" t="n">
         <v>156.0334337071738</v>
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>76.79682501022856</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2211,22 +2211,22 @@
         <v>163.724932038389</v>
       </c>
       <c r="T21" t="n">
-        <v>197.246165760451</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>1.076525884587424</v>
+        <v>224.6386291975415</v>
       </c>
       <c r="V21" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W21" t="n">
-        <v>249.98934675</v>
+        <v>93.78628160327341</v>
       </c>
       <c r="X21" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>53.93261699251738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.5904860645915</v>
       </c>
       <c r="T22" t="n">
         <v>3.760466649650548</v>
       </c>
       <c r="U22" t="n">
-        <v>260.0677608529709</v>
+        <v>62.47727478837944</v>
       </c>
       <c r="V22" t="n">
         <v>29.37424775398506</v>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>171.025583927401</v>
@@ -2403,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>107.7396882560888</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2448,13 +2448,13 @@
         <v>163.724932038389</v>
       </c>
       <c r="T24" t="n">
-        <v>197.246165760451</v>
+        <v>83.2741751618429</v>
       </c>
       <c r="U24" t="n">
         <v>224.6386291975415</v>
       </c>
       <c r="V24" t="n">
-        <v>216.3377367939648</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W24" t="n">
         <v>26.42724343704595</v>
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>34.8268825627972</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>162.7636035017944</v>
+        <v>162.7636035017943</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>3.760466649650548</v>
       </c>
       <c r="U25" t="n">
-        <v>97.30415735117653</v>
+        <v>62.47727478837944</v>
       </c>
       <c r="V25" t="n">
         <v>29.37424775398506</v>
@@ -2558,7 +2558,7 @@
         <v>224.9181799935063</v>
       </c>
       <c r="D26" t="n">
-        <v>214.5378170691621</v>
+        <v>214.537817069162</v>
       </c>
       <c r="E26" t="n">
         <v>241.0511200698511</v>
@@ -2570,10 +2570,10 @@
         <v>272.2609286640754</v>
       </c>
       <c r="H26" t="n">
-        <v>190.6806574551714</v>
+        <v>190.6806574551713</v>
       </c>
       <c r="I26" t="n">
-        <v>42.84326823604977</v>
+        <v>42.84326823605029</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>51.79082251280593</v>
+        <v>51.7908225128059</v>
       </c>
       <c r="T26" t="n">
-        <v>78.59160459570208</v>
+        <v>78.59160459570204</v>
       </c>
       <c r="U26" t="n">
-        <v>109.3686942067617</v>
+        <v>109.3686942067625</v>
       </c>
       <c r="V26" t="n">
         <v>186.466305837083</v>
       </c>
       <c r="W26" t="n">
-        <v>208.4632013151183</v>
+        <v>208.4632013151182</v>
       </c>
       <c r="X26" t="n">
-        <v>228.7946834457331</v>
+        <v>228.794683445733</v>
       </c>
       <c r="Y26" t="n">
-        <v>244.6201560657995</v>
+        <v>244.6201560657994</v>
       </c>
     </row>
     <row r="27">
@@ -2634,19 +2634,19 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C27" t="n">
-        <v>171.025583927401</v>
+        <v>45.7907591714887</v>
       </c>
       <c r="D27" t="n">
-        <v>4.045507889209233</v>
+        <v>4.045507889209205</v>
       </c>
       <c r="E27" t="n">
-        <v>156.0334337071738</v>
+        <v>13.96651802173747</v>
       </c>
       <c r="F27" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>135.7412825862149</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2685,7 +2685,7 @@
         <v>163.724932038389</v>
       </c>
       <c r="T27" t="n">
-        <v>65.68570790531722</v>
+        <v>197.246165760451</v>
       </c>
       <c r="U27" t="n">
         <v>224.6386291975415</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>38.01677580524748</v>
+        <v>38.01677580524745</v>
       </c>
       <c r="C28" t="n">
-        <v>25.26963724576601</v>
+        <v>25.26963724576598</v>
       </c>
       <c r="D28" t="n">
-        <v>6.938650829083031</v>
+        <v>6.938650829083002</v>
       </c>
       <c r="E28" t="n">
-        <v>4.907708487762847</v>
+        <v>4.907708487762818</v>
       </c>
       <c r="F28" t="n">
-        <v>4.092105724368167</v>
+        <v>4.092105724368139</v>
       </c>
       <c r="G28" t="n">
-        <v>25.58631459960932</v>
+        <v>25.5863145996093</v>
       </c>
       <c r="H28" t="n">
-        <v>17.46571309738017</v>
+        <v>17.46571309738015</v>
       </c>
       <c r="I28" t="n">
-        <v>4.583682040454124</v>
+        <v>4.583682040454094</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>20.69668781635802</v>
+        <v>20.69668781635799</v>
       </c>
       <c r="S28" t="n">
-        <v>76.17140470703495</v>
+        <v>76.17140470703492</v>
       </c>
       <c r="T28" t="n">
-        <v>85.25565427716832</v>
+        <v>85.25565427716829</v>
       </c>
       <c r="U28" t="n">
         <v>143.9724624158972</v>
@@ -2776,10 +2776,10 @@
         <v>144.0256612019792</v>
       </c>
       <c r="X28" t="n">
-        <v>84.07344424687292</v>
+        <v>84.0734442468729</v>
       </c>
       <c r="Y28" t="n">
-        <v>76.68175818233189</v>
+        <v>76.68175818233186</v>
       </c>
     </row>
     <row r="29">
@@ -2795,22 +2795,22 @@
         <v>224.9181799935063</v>
       </c>
       <c r="D29" t="n">
-        <v>214.5378170691621</v>
+        <v>214.537817069162</v>
       </c>
       <c r="E29" t="n">
-        <v>241.0511200698512</v>
+        <v>241.0511200698511</v>
       </c>
       <c r="F29" t="n">
         <v>265.2269477951045</v>
       </c>
       <c r="G29" t="n">
-        <v>272.2609286640755</v>
+        <v>272.2609286640754</v>
       </c>
       <c r="H29" t="n">
-        <v>190.6806574551714</v>
+        <v>190.6806574551713</v>
       </c>
       <c r="I29" t="n">
-        <v>42.84326823604959</v>
+        <v>42.84326823604974</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>51.79082251280596</v>
+        <v>51.7908225128059</v>
       </c>
       <c r="T29" t="n">
-        <v>78.59160459570209</v>
+        <v>78.59160459570167</v>
       </c>
       <c r="U29" t="n">
-        <v>109.3686942067626</v>
+        <v>109.3686942067617</v>
       </c>
       <c r="V29" t="n">
         <v>186.466305837083</v>
       </c>
       <c r="W29" t="n">
-        <v>208.4632013151183</v>
+        <v>208.4632013151182</v>
       </c>
       <c r="X29" t="n">
-        <v>228.7946834457331</v>
+        <v>228.794683445733</v>
       </c>
       <c r="Y29" t="n">
-        <v>244.6201560657995</v>
+        <v>244.6201560657994</v>
       </c>
     </row>
     <row r="30">
@@ -2868,19 +2868,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>165.3721256103448</v>
+        <v>111.0024046561212</v>
       </c>
       <c r="C30" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D30" t="n">
-        <v>146.1124235746456</v>
+        <v>4.045507889209205</v>
       </c>
       <c r="E30" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F30" t="n">
-        <v>1.439316398112993</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>77.19073690091015</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>163.724932038389</v>
@@ -2937,7 +2937,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y30" t="n">
-        <v>72.11069356345232</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="31">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>38.01677580524751</v>
+        <v>38.01677580524745</v>
       </c>
       <c r="C31" t="n">
-        <v>25.26963724576603</v>
+        <v>25.26963724576598</v>
       </c>
       <c r="D31" t="n">
-        <v>6.938650829083059</v>
+        <v>6.938650829083002</v>
       </c>
       <c r="E31" t="n">
-        <v>4.907708487762875</v>
+        <v>4.907708487762818</v>
       </c>
       <c r="F31" t="n">
-        <v>4.092105724368196</v>
+        <v>4.092105724368139</v>
       </c>
       <c r="G31" t="n">
-        <v>25.58631459960935</v>
+        <v>25.5863145996093</v>
       </c>
       <c r="H31" t="n">
-        <v>17.4657130973802</v>
+        <v>17.46571309738015</v>
       </c>
       <c r="I31" t="n">
-        <v>4.583682040454153</v>
+        <v>4.583682040454094</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>20.69668781635805</v>
+        <v>20.69668781635799</v>
       </c>
       <c r="S31" t="n">
-        <v>76.17140470703498</v>
+        <v>76.17140470703492</v>
       </c>
       <c r="T31" t="n">
-        <v>85.25565427716835</v>
+        <v>85.25565427716829</v>
       </c>
       <c r="U31" t="n">
         <v>143.9724624158972</v>
       </c>
       <c r="V31" t="n">
-        <v>110.8694353815029</v>
+        <v>110.8694353815028</v>
       </c>
       <c r="W31" t="n">
         <v>144.0256612019792</v>
       </c>
       <c r="X31" t="n">
-        <v>84.07344424687295</v>
+        <v>84.0734442468729</v>
       </c>
       <c r="Y31" t="n">
-        <v>76.68175818233192</v>
+        <v>76.68175818233186</v>
       </c>
     </row>
     <row r="32">
@@ -3032,7 +3032,7 @@
         <v>224.9181799935063</v>
       </c>
       <c r="D32" t="n">
-        <v>214.537817069162</v>
+        <v>214.5378170691621</v>
       </c>
       <c r="E32" t="n">
         <v>241.0511200698511</v>
@@ -3044,10 +3044,10 @@
         <v>272.2609286640754</v>
       </c>
       <c r="H32" t="n">
-        <v>190.6806574551713</v>
+        <v>190.6806574551714</v>
       </c>
       <c r="I32" t="n">
-        <v>42.84326823604971</v>
+        <v>42.84326823604977</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>51.7908225128059</v>
+        <v>51.79082251280593</v>
       </c>
       <c r="T32" t="n">
-        <v>78.59160459570205</v>
+        <v>78.59160459570208</v>
       </c>
       <c r="U32" t="n">
         <v>109.3686942067626</v>
@@ -3089,13 +3089,13 @@
         <v>186.466305837083</v>
       </c>
       <c r="W32" t="n">
-        <v>208.4632013151182</v>
+        <v>208.4632013151183</v>
       </c>
       <c r="X32" t="n">
-        <v>228.794683445733</v>
+        <v>228.7946834457331</v>
       </c>
       <c r="Y32" t="n">
-        <v>244.6201560657994</v>
+        <v>244.6201560657995</v>
       </c>
     </row>
     <row r="33">
@@ -3108,19 +3108,19 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C33" t="n">
-        <v>45.79075917148882</v>
+        <v>39.4651260722673</v>
       </c>
       <c r="D33" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E33" t="n">
-        <v>156.0334337071738</v>
+        <v>13.9665180217375</v>
       </c>
       <c r="F33" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G33" t="n">
-        <v>135.7412825862149</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>77.19073690091014</v>
+        <v>77.19073690091015</v>
       </c>
       <c r="S33" t="n">
         <v>163.724932038389</v>
@@ -3171,10 +3171,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X33" t="n">
-        <v>62.39471392304191</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y33" t="n">
-        <v>61.60423573314966</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="34">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>38.01677580524745</v>
+        <v>38.01677580524748</v>
       </c>
       <c r="C34" t="n">
-        <v>25.26963724576598</v>
+        <v>25.26963724576601</v>
       </c>
       <c r="D34" t="n">
-        <v>6.938650829083002</v>
+        <v>6.938650829083031</v>
       </c>
       <c r="E34" t="n">
-        <v>4.907708487762818</v>
+        <v>4.907708487762847</v>
       </c>
       <c r="F34" t="n">
-        <v>4.092105724368139</v>
+        <v>4.092105724368167</v>
       </c>
       <c r="G34" t="n">
-        <v>25.5863145996093</v>
+        <v>25.58631459960932</v>
       </c>
       <c r="H34" t="n">
-        <v>17.46571309738015</v>
+        <v>17.46571309738017</v>
       </c>
       <c r="I34" t="n">
-        <v>4.583682040454089</v>
+        <v>4.583682040454122</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>20.69668781635799</v>
+        <v>20.69668781635802</v>
       </c>
       <c r="S34" t="n">
-        <v>76.17140470703491</v>
+        <v>76.17140470703495</v>
       </c>
       <c r="T34" t="n">
-        <v>85.25565427716829</v>
+        <v>85.25565427716832</v>
       </c>
       <c r="U34" t="n">
         <v>143.9724624158972</v>
@@ -3250,10 +3250,10 @@
         <v>144.0256612019792</v>
       </c>
       <c r="X34" t="n">
-        <v>84.0734442468729</v>
+        <v>84.07344424687292</v>
       </c>
       <c r="Y34" t="n">
-        <v>76.68175818233186</v>
+        <v>76.68175818233189</v>
       </c>
     </row>
     <row r="35">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>134.5075305992482</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C36" t="n">
         <v>171.025583927401</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>77.19073690091014</v>
+        <v>77.19073690091015</v>
       </c>
       <c r="S36" t="n">
         <v>163.724932038389</v>
@@ -3399,10 +3399,10 @@
         <v>197.246165760451</v>
       </c>
       <c r="U36" t="n">
-        <v>224.6386291975415</v>
+        <v>213.2818734867328</v>
       </c>
       <c r="V36" t="n">
-        <v>231.9087310396551</v>
+        <v>8.729740320781161</v>
       </c>
       <c r="W36" t="n">
         <v>249.98934675</v>
@@ -3411,7 +3411,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="37">
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>4.143579243730678</v>
+        <v>4.143579243730679</v>
       </c>
       <c r="U37" t="n">
         <v>62.86038738245957</v>
@@ -3490,7 +3490,7 @@
         <v>2.96136921343529</v>
       </c>
       <c r="Y37" t="n">
-        <v>195.674923094191</v>
+        <v>195.6749230941909</v>
       </c>
     </row>
     <row r="38">
@@ -3579,13 +3579,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>68.06786565992718</v>
+        <v>104.7378967331594</v>
       </c>
       <c r="C39" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>76.79682501022856</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>77.19073690091014</v>
+        <v>77.19073690091015</v>
       </c>
       <c r="S39" t="n">
         <v>163.724932038389</v>
@@ -3636,10 +3636,10 @@
         <v>197.246165760451</v>
       </c>
       <c r="U39" t="n">
-        <v>1.459638478667556</v>
+        <v>224.6386291975415</v>
       </c>
       <c r="V39" t="n">
-        <v>231.9087310396551</v>
+        <v>8.729740320781161</v>
       </c>
       <c r="W39" t="n">
         <v>249.98934675</v>
@@ -3648,7 +3648,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="40">
@@ -3709,10 +3709,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>195.6749230941909</v>
       </c>
       <c r="T40" t="n">
-        <v>4.143579243730678</v>
+        <v>4.143579243730679</v>
       </c>
       <c r="U40" t="n">
         <v>62.86038738245957</v>
@@ -3727,7 +3727,7 @@
         <v>2.96136921343529</v>
       </c>
       <c r="Y40" t="n">
-        <v>195.674923094191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,19 +3737,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>163.0578897102567</v>
+        <v>163.0578897102566</v>
       </c>
       <c r="C41" t="n">
-        <v>146.3265753978043</v>
+        <v>146.3265753978042</v>
       </c>
       <c r="D41" t="n">
         <v>135.94621247346</v>
       </c>
       <c r="E41" t="n">
-        <v>162.4595154741491</v>
+        <v>162.459515474149</v>
       </c>
       <c r="F41" t="n">
-        <v>186.6353431994025</v>
+        <v>186.6353431994024</v>
       </c>
       <c r="G41" t="n">
         <v>193.6693240683734</v>
@@ -3794,10 +3794,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>30.77708961106052</v>
+        <v>30.77708961106142</v>
       </c>
       <c r="V41" t="n">
-        <v>107.874701241381</v>
+        <v>107.8747012413809</v>
       </c>
       <c r="W41" t="n">
         <v>129.8715967194162</v>
@@ -3806,7 +3806,7 @@
         <v>150.203078850031</v>
       </c>
       <c r="Y41" t="n">
-        <v>166.0285514700975</v>
+        <v>166.0285514700974</v>
       </c>
     </row>
     <row r="42">
@@ -3819,16 +3819,16 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D42" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3864,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>77.19073690091014</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>163.724932038389</v>
       </c>
       <c r="T42" t="n">
         <v>197.246165760451</v>
@@ -3876,7 +3876,7 @@
         <v>224.6386291975415</v>
       </c>
       <c r="V42" t="n">
-        <v>60.22328854677</v>
+        <v>11.25021075851672</v>
       </c>
       <c r="W42" t="n">
         <v>249.98934675</v>
@@ -3885,7 +3885,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y42" t="n">
-        <v>203.671151418586</v>
+        <v>153.7240753402304</v>
       </c>
     </row>
     <row r="43">
@@ -3898,7 +3898,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3943,25 +3943,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>162.7636035017943</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>6.664049681466289</v>
+        <v>6.664049681466233</v>
       </c>
       <c r="U43" t="n">
-        <v>65.38085782019519</v>
+        <v>65.38085782019513</v>
       </c>
       <c r="V43" t="n">
-        <v>32.2778307858008</v>
+        <v>32.27783078580075</v>
       </c>
       <c r="W43" t="n">
-        <v>65.43405660627718</v>
+        <v>85.74302400999579</v>
       </c>
       <c r="X43" t="n">
-        <v>21.21785762548149</v>
+        <v>5.481839651170844</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>163.0578897102567</v>
+        <v>163.0578897102566</v>
       </c>
       <c r="C44" t="n">
         <v>146.3265753978042</v>
@@ -3983,16 +3983,16 @@
         <v>135.94621247346</v>
       </c>
       <c r="E44" t="n">
-        <v>162.4595154741491</v>
+        <v>162.459515474149</v>
       </c>
       <c r="F44" t="n">
-        <v>186.6353431994025</v>
+        <v>186.6353431994024</v>
       </c>
       <c r="G44" t="n">
         <v>193.6693240683734</v>
       </c>
       <c r="H44" t="n">
-        <v>112.0890528594692</v>
+        <v>112.0890528594693</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,10 +4031,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>30.77708961106051</v>
+        <v>30.77708961106049</v>
       </c>
       <c r="V44" t="n">
-        <v>107.874701241381</v>
+        <v>107.8747012413809</v>
       </c>
       <c r="W44" t="n">
         <v>129.8715967194162</v>
@@ -4056,25 +4056,25 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C45" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>135.7412825862149</v>
+        <v>87.18482350076738</v>
       </c>
       <c r="H45" t="n">
-        <v>107.7396882560888</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>76.79682501022856</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,25 +4101,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>77.19073690090993</v>
+        <v>77.19073690091015</v>
       </c>
       <c r="S45" t="n">
         <v>163.724932038389</v>
       </c>
       <c r="T45" t="n">
-        <v>105.6351082538523</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>3.980108916403138</v>
+        <v>224.6386291975415</v>
       </c>
       <c r="V45" t="n">
-        <v>11.25021075851674</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W45" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y45" t="n">
         <v>203.671151418586</v>
@@ -4177,7 +4177,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>59.96888642430384</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -4186,19 +4186,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>6.664049681466249</v>
+        <v>6.664049681466233</v>
       </c>
       <c r="U46" t="n">
-        <v>65.38085782019516</v>
+        <v>248.4534287257082</v>
       </c>
       <c r="V46" t="n">
-        <v>155.3815152670122</v>
+        <v>32.27783078580075</v>
       </c>
       <c r="W46" t="n">
-        <v>65.43405660627715</v>
+        <v>65.43405660627712</v>
       </c>
       <c r="X46" t="n">
-        <v>5.481839651170873</v>
+        <v>5.481839651170844</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>176.6865436520732</v>
+        <v>310.0768013006708</v>
       </c>
       <c r="C11" t="n">
-        <v>97.38084409453404</v>
+        <v>310.0768013006708</v>
       </c>
       <c r="D11" t="n">
-        <v>97.38084409453404</v>
+        <v>310.0768013006708</v>
       </c>
       <c r="E11" t="n">
-        <v>97.38084409453404</v>
+        <v>310.0768013006708</v>
       </c>
       <c r="F11" t="n">
-        <v>97.38084409453404</v>
+        <v>310.0768013006708</v>
       </c>
       <c r="G11" t="n">
-        <v>97.38084409453404</v>
+        <v>310.0768013006708</v>
       </c>
       <c r="H11" t="n">
         <v>97.38084409453404</v>
@@ -5039,10 +5039,10 @@
         <v>34.01558306932823</v>
       </c>
       <c r="J11" t="n">
-        <v>72.99365786263536</v>
+        <v>72.9936578626353</v>
       </c>
       <c r="K11" t="n">
-        <v>260.6481166474516</v>
+        <v>260.6481166474515</v>
       </c>
       <c r="L11" t="n">
         <v>545.4191444354851</v>
@@ -5081,10 +5081,10 @@
         <v>959.2414470401571</v>
       </c>
       <c r="X11" t="n">
-        <v>708.046473681938</v>
+        <v>841.4367313305356</v>
       </c>
       <c r="Y11" t="n">
-        <v>440.8661744448638</v>
+        <v>574.2564320934614</v>
       </c>
     </row>
     <row r="12">
@@ -5094,7 +5094,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>212.0455198186426</v>
+        <v>176.9712177625836</v>
       </c>
       <c r="C12" t="n">
         <v>127.6308052162516</v>
@@ -5121,7 +5121,7 @@
         <v>34.01558306932823</v>
       </c>
       <c r="K12" t="n">
-        <v>34.01558306932823</v>
+        <v>163.8609485707091</v>
       </c>
       <c r="L12" t="n">
         <v>163.8609485707091</v>
@@ -5154,16 +5154,16 @@
         <v>1031.283735388339</v>
       </c>
       <c r="V12" t="n">
-        <v>797.03249191394</v>
+        <v>885.3708923897319</v>
       </c>
       <c r="W12" t="n">
-        <v>544.5180002472733</v>
+        <v>632.8564007230652</v>
       </c>
       <c r="X12" t="n">
-        <v>461.4038041847017</v>
+        <v>426.3295021286427</v>
       </c>
       <c r="Y12" t="n">
-        <v>255.6753684083522</v>
+        <v>344.013768884144</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>264.3814348640266</v>
+        <v>264.3814348640267</v>
       </c>
       <c r="C13" t="n">
-        <v>218.7673162532489</v>
+        <v>218.767316253249</v>
       </c>
       <c r="D13" t="n">
-        <v>191.6693455381105</v>
+        <v>191.6693455381106</v>
       </c>
       <c r="E13" t="n">
-        <v>166.6228317333965</v>
+        <v>166.6228317333966</v>
       </c>
       <c r="F13" t="n">
-        <v>142.4001591038287</v>
+        <v>142.4001591038288</v>
       </c>
       <c r="G13" t="n">
-        <v>96.46616437805767</v>
+        <v>96.4661643780578</v>
       </c>
       <c r="H13" t="n">
         <v>58.73479743231622</v>
@@ -5197,7 +5197,7 @@
         <v>34.01558306932823</v>
       </c>
       <c r="J13" t="n">
-        <v>83.5653669861473</v>
+        <v>83.56536698614735</v>
       </c>
       <c r="K13" t="n">
         <v>217.0814624720376</v>
@@ -5209,13 +5209,13 @@
         <v>617.2454674020861</v>
       </c>
       <c r="N13" t="n">
-        <v>827.6649322725643</v>
+        <v>827.6649322725644</v>
       </c>
       <c r="O13" t="n">
         <v>1015.918385894576</v>
       </c>
       <c r="P13" t="n">
-        <v>1171.236616050932</v>
+        <v>1171.236616050933</v>
       </c>
       <c r="Q13" t="n">
         <v>1232.824208242338</v>
@@ -5227,22 +5227,22 @@
         <v>1094.799185130014</v>
       </c>
       <c r="T13" t="n">
-        <v>988.5931301238808</v>
+        <v>988.5931301238807</v>
       </c>
       <c r="U13" t="n">
-        <v>823.0771679069098</v>
+        <v>823.0771679069097</v>
       </c>
       <c r="V13" t="n">
         <v>690.9986067347817</v>
       </c>
       <c r="W13" t="n">
-        <v>525.4289083702531</v>
+        <v>525.4289083702532</v>
       </c>
       <c r="X13" t="n">
-        <v>420.4170049098724</v>
+        <v>420.4170049098725</v>
       </c>
       <c r="Y13" t="n">
-        <v>322.8714510096341</v>
+        <v>322.8714510096343</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>176.6865436520733</v>
+        <v>310.0768013006708</v>
       </c>
       <c r="C14" t="n">
-        <v>97.38084409453404</v>
+        <v>310.0768013006708</v>
       </c>
       <c r="D14" t="n">
-        <v>97.38084409453404</v>
+        <v>310.0768013006708</v>
       </c>
       <c r="E14" t="n">
-        <v>97.38084409453404</v>
+        <v>310.0768013006708</v>
       </c>
       <c r="F14" t="n">
-        <v>97.38084409453404</v>
+        <v>310.0768013006708</v>
       </c>
       <c r="G14" t="n">
-        <v>97.38084409453404</v>
+        <v>310.0768013006708</v>
       </c>
       <c r="H14" t="n">
         <v>97.38084409453404</v>
@@ -5276,10 +5276,10 @@
         <v>34.01558306932823</v>
       </c>
       <c r="J14" t="n">
-        <v>72.99365786263536</v>
+        <v>72.9936578626353</v>
       </c>
       <c r="K14" t="n">
-        <v>260.6481166474516</v>
+        <v>260.6481166474515</v>
       </c>
       <c r="L14" t="n">
         <v>545.4191444354851</v>
@@ -5306,7 +5306,7 @@
         <v>1628.375958828321</v>
       </c>
       <c r="T14" t="n">
-        <v>1528.9012671368</v>
+        <v>1528.901267136799</v>
       </c>
       <c r="U14" t="n">
         <v>1398.338606141177</v>
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>212.0455198186426</v>
+        <v>300.3839202944345</v>
       </c>
       <c r="C15" t="n">
-        <v>162.7051072723107</v>
+        <v>251.0435077481025</v>
       </c>
       <c r="D15" t="n">
-        <v>138.5295031631054</v>
+        <v>103.4552011070464</v>
       </c>
       <c r="E15" t="n">
-        <v>69.25837464175193</v>
+        <v>69.25837464175196</v>
       </c>
       <c r="F15" t="n">
-        <v>47.71528719021967</v>
+        <v>47.71528719021968</v>
       </c>
       <c r="G15" t="n">
         <v>34.01558306932823</v>
@@ -5382,25 +5382,25 @@
         <v>1622.808712152361</v>
       </c>
       <c r="S15" t="n">
-        <v>1457.429992921665</v>
+        <v>1545.768393397457</v>
       </c>
       <c r="T15" t="n">
-        <v>1258.191441648482</v>
+        <v>1346.529842124274</v>
       </c>
       <c r="U15" t="n">
-        <v>1031.283735388339</v>
+        <v>1119.622135864131</v>
       </c>
       <c r="V15" t="n">
-        <v>797.03249191394</v>
+        <v>1008.783594921583</v>
       </c>
       <c r="W15" t="n">
-        <v>544.5180002472733</v>
+        <v>756.2691032549161</v>
       </c>
       <c r="X15" t="n">
-        <v>461.4038041847017</v>
+        <v>549.7422046604936</v>
       </c>
       <c r="Y15" t="n">
-        <v>255.6753684083522</v>
+        <v>344.013768884144</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>264.381434864027</v>
+        <v>264.3814348640265</v>
       </c>
       <c r="C16" t="n">
-        <v>218.7673162532492</v>
+        <v>218.7673162532487</v>
       </c>
       <c r="D16" t="n">
-        <v>191.6693455381109</v>
+        <v>191.6693455381103</v>
       </c>
       <c r="E16" t="n">
-        <v>166.6228317333969</v>
+        <v>166.6228317333964</v>
       </c>
       <c r="F16" t="n">
-        <v>142.4001591038291</v>
+        <v>142.4001591038285</v>
       </c>
       <c r="G16" t="n">
-        <v>96.46616437805818</v>
+        <v>96.46616437805753</v>
       </c>
       <c r="H16" t="n">
-        <v>58.73479743231661</v>
+        <v>58.73479743231594</v>
       </c>
       <c r="I16" t="n">
         <v>34.01558306932823</v>
@@ -5437,49 +5437,49 @@
         <v>83.5653669861473</v>
       </c>
       <c r="K16" t="n">
-        <v>217.0814624720376</v>
+        <v>217.0814624720375</v>
       </c>
       <c r="L16" t="n">
-        <v>409.9134546823796</v>
+        <v>409.9134546823794</v>
       </c>
       <c r="M16" t="n">
-        <v>617.2454674020861</v>
+        <v>617.245467402086</v>
       </c>
       <c r="N16" t="n">
-        <v>827.6649322725644</v>
+        <v>827.6649322725643</v>
       </c>
       <c r="O16" t="n">
         <v>1015.918385894576</v>
       </c>
       <c r="P16" t="n">
-        <v>1171.236616050933</v>
+        <v>1171.236616050932</v>
       </c>
       <c r="Q16" t="n">
         <v>1232.824208242338</v>
       </c>
       <c r="R16" t="n">
-        <v>1191.829230469347</v>
+        <v>1191.829230469346</v>
       </c>
       <c r="S16" t="n">
         <v>1094.799185130014</v>
       </c>
       <c r="T16" t="n">
-        <v>988.5931301238809</v>
+        <v>988.5931301238804</v>
       </c>
       <c r="U16" t="n">
-        <v>823.0771679069099</v>
+        <v>823.0771679069095</v>
       </c>
       <c r="V16" t="n">
-        <v>690.9986067347819</v>
+        <v>690.9986067347814</v>
       </c>
       <c r="W16" t="n">
-        <v>525.4289083702535</v>
+        <v>525.428908370253</v>
       </c>
       <c r="X16" t="n">
-        <v>420.4170049098727</v>
+        <v>420.4170049098723</v>
       </c>
       <c r="Y16" t="n">
-        <v>322.8714510096345</v>
+        <v>322.871451009634</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>963.0100530509084</v>
+        <v>963.010053050908</v>
       </c>
       <c r="C17" t="n">
-        <v>818.1383435903136</v>
+        <v>818.1383435903135</v>
       </c>
       <c r="D17" t="n">
-        <v>683.7518492048143</v>
+        <v>683.7518492048142</v>
       </c>
       <c r="E17" t="n">
-        <v>522.5842406772049</v>
+        <v>522.5842406772048</v>
       </c>
       <c r="F17" t="n">
-        <v>336.996604144289</v>
+        <v>336.9966041442889</v>
       </c>
       <c r="G17" t="n">
         <v>144.3039364305945</v>
@@ -5513,10 +5513,10 @@
         <v>34.01558306932823</v>
       </c>
       <c r="J17" t="n">
-        <v>72.99365786263536</v>
+        <v>72.9936578626353</v>
       </c>
       <c r="K17" t="n">
-        <v>260.6481166474516</v>
+        <v>260.6481166474515</v>
       </c>
       <c r="L17" t="n">
         <v>545.4191444354851</v>
@@ -5558,7 +5558,7 @@
         <v>1289.554775391032</v>
       </c>
       <c r="Y17" t="n">
-        <v>1124.782079998829</v>
+        <v>1124.782079998828</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>476.3258253602719</v>
+        <v>364.3782271446564</v>
       </c>
       <c r="C18" t="n">
-        <v>476.3258253602719</v>
+        <v>191.6251120664735</v>
       </c>
       <c r="D18" t="n">
-        <v>328.7375187192158</v>
+        <v>191.6251120664735</v>
       </c>
       <c r="E18" t="n">
-        <v>171.1279897220705</v>
+        <v>34.01558306932823</v>
       </c>
       <c r="F18" t="n">
-        <v>171.1279897220705</v>
+        <v>34.01558306932823</v>
       </c>
       <c r="G18" t="n">
         <v>34.01558306932823</v>
@@ -5595,10 +5595,10 @@
         <v>34.01558306932823</v>
       </c>
       <c r="K18" t="n">
-        <v>163.8609485707091</v>
+        <v>34.01558306932823</v>
       </c>
       <c r="L18" t="n">
-        <v>163.8609485707091</v>
+        <v>342.6951984864745</v>
       </c>
       <c r="M18" t="n">
         <v>576.8756943603789</v>
@@ -5628,16 +5628,16 @@
         <v>1031.283735388339</v>
       </c>
       <c r="V18" t="n">
-        <v>797.03249191394</v>
+        <v>970.3702979269342</v>
       </c>
       <c r="W18" t="n">
-        <v>544.5180002472733</v>
+        <v>943.6761126369888</v>
       </c>
       <c r="X18" t="n">
-        <v>476.3258253602719</v>
+        <v>737.1492140425663</v>
       </c>
       <c r="Y18" t="n">
-        <v>476.3258253602719</v>
+        <v>531.4207782662168</v>
       </c>
     </row>
     <row r="19">
@@ -5674,7 +5674,7 @@
         <v>34.01558306932823</v>
       </c>
       <c r="K19" t="n">
-        <v>46.57488880375148</v>
+        <v>46.57488880375149</v>
       </c>
       <c r="L19" t="n">
         <v>118.4500912626264</v>
@@ -5686,22 +5686,22 @@
         <v>294.2879893498773</v>
       </c>
       <c r="O19" t="n">
-        <v>361.5846532204216</v>
+        <v>361.5846532204217</v>
       </c>
       <c r="P19" t="n">
-        <v>395.9460936253112</v>
+        <v>395.9460936253113</v>
       </c>
       <c r="Q19" t="n">
-        <v>395.9460936253112</v>
+        <v>395.9460936253113</v>
       </c>
       <c r="R19" t="n">
-        <v>395.9460936253112</v>
+        <v>395.9460936253113</v>
       </c>
       <c r="S19" t="n">
-        <v>395.9460936253112</v>
+        <v>395.9460936253113</v>
       </c>
       <c r="T19" t="n">
-        <v>392.147642464048</v>
+        <v>392.1476424640481</v>
       </c>
       <c r="U19" t="n">
         <v>329.0392840919476</v>
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>963.0100530509087</v>
+        <v>963.0100530509081</v>
       </c>
       <c r="C20" t="n">
-        <v>818.1383435903136</v>
+        <v>818.1383435903134</v>
       </c>
       <c r="D20" t="n">
-        <v>683.7518492048143</v>
+        <v>683.7518492048141</v>
       </c>
       <c r="E20" t="n">
-        <v>522.5842406772049</v>
+        <v>522.5842406772047</v>
       </c>
       <c r="F20" t="n">
-        <v>336.996604144289</v>
+        <v>336.9966041442887</v>
       </c>
       <c r="G20" t="n">
         <v>144.3039364305945</v>
@@ -5750,10 +5750,10 @@
         <v>34.01558306932823</v>
       </c>
       <c r="J20" t="n">
-        <v>72.99365786263536</v>
+        <v>72.9936578626353</v>
       </c>
       <c r="K20" t="n">
-        <v>260.6481166474516</v>
+        <v>260.6481166474515</v>
       </c>
       <c r="L20" t="n">
         <v>545.4191444354851</v>
@@ -5792,10 +5792,10 @@
         <v>1438.342144904381</v>
       </c>
       <c r="X20" t="n">
-        <v>1289.554775391033</v>
+        <v>1289.554775391032</v>
       </c>
       <c r="Y20" t="n">
-        <v>1124.782079998829</v>
+        <v>1124.782079998828</v>
       </c>
     </row>
     <row r="21">
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>509.3340171280395</v>
+        <v>734.4948742844781</v>
       </c>
       <c r="C21" t="n">
-        <v>336.5809020498567</v>
+        <v>561.7417592062952</v>
       </c>
       <c r="D21" t="n">
-        <v>336.5809020498567</v>
+        <v>414.153452565239</v>
       </c>
       <c r="E21" t="n">
-        <v>178.9713730527114</v>
+        <v>256.5439235680938</v>
       </c>
       <c r="F21" t="n">
-        <v>34.01558306932823</v>
+        <v>111.5881335847106</v>
       </c>
       <c r="G21" t="n">
-        <v>34.01558306932823</v>
+        <v>111.5881335847106</v>
       </c>
       <c r="H21" t="n">
-        <v>34.01558306932823</v>
+        <v>111.5881335847106</v>
       </c>
       <c r="I21" t="n">
         <v>34.01558306932823</v>
       </c>
       <c r="J21" t="n">
-        <v>67.77851149822686</v>
+        <v>34.01558306932823</v>
       </c>
       <c r="K21" t="n">
-        <v>252.0903470956158</v>
+        <v>34.01558306932823</v>
       </c>
       <c r="L21" t="n">
-        <v>252.0903470956158</v>
+        <v>163.8609485707091</v>
       </c>
       <c r="M21" t="n">
         <v>576.8756943603789</v>
@@ -5859,22 +5859,22 @@
         <v>1457.429992921665</v>
       </c>
       <c r="T21" t="n">
-        <v>1258.191441648482</v>
+        <v>1457.429992921665</v>
       </c>
       <c r="U21" t="n">
-        <v>1257.104041765061</v>
+        <v>1230.522286661522</v>
       </c>
       <c r="V21" t="n">
-        <v>1022.852798290661</v>
+        <v>996.2710431871228</v>
       </c>
       <c r="W21" t="n">
-        <v>770.3383066239948</v>
+        <v>901.5374254060386</v>
       </c>
       <c r="X21" t="n">
-        <v>563.8114080295722</v>
+        <v>901.5374254060386</v>
       </c>
       <c r="Y21" t="n">
-        <v>509.3340171280395</v>
+        <v>901.5374254060386</v>
       </c>
     </row>
     <row r="22">
@@ -5911,7 +5911,7 @@
         <v>34.01558306932823</v>
       </c>
       <c r="K22" t="n">
-        <v>46.57488880375148</v>
+        <v>46.57488880375149</v>
       </c>
       <c r="L22" t="n">
         <v>118.4500912626264</v>
@@ -5923,22 +5923,22 @@
         <v>294.2879893498773</v>
       </c>
       <c r="O22" t="n">
-        <v>361.5846532204216</v>
+        <v>361.5846532204217</v>
       </c>
       <c r="P22" t="n">
-        <v>395.9460936253112</v>
+        <v>395.9460936253113</v>
       </c>
       <c r="Q22" t="n">
-        <v>395.9460936253112</v>
+        <v>395.9460936253113</v>
       </c>
       <c r="R22" t="n">
-        <v>395.9460936253112</v>
+        <v>395.9460936253113</v>
       </c>
       <c r="S22" t="n">
-        <v>395.9460936253112</v>
+        <v>196.3597440651178</v>
       </c>
       <c r="T22" t="n">
-        <v>392.147642464048</v>
+        <v>192.5612929038546</v>
       </c>
       <c r="U22" t="n">
         <v>129.4529345317542</v>
@@ -5963,40 +5963,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>963.0100530509089</v>
+        <v>963.0100530509081</v>
       </c>
       <c r="C23" t="n">
-        <v>818.1383435903139</v>
+        <v>818.1383435903136</v>
       </c>
       <c r="D23" t="n">
-        <v>683.7518492048146</v>
+        <v>683.7518492048143</v>
       </c>
       <c r="E23" t="n">
-        <v>522.5842406772051</v>
+        <v>522.5842406772049</v>
       </c>
       <c r="F23" t="n">
-        <v>336.9966041442892</v>
+        <v>336.996604144289</v>
       </c>
       <c r="G23" t="n">
-        <v>144.3039364305945</v>
+        <v>144.3039364305943</v>
       </c>
       <c r="H23" t="n">
-        <v>34.01558306932824</v>
+        <v>34.01558306932809</v>
       </c>
       <c r="I23" t="n">
-        <v>34.01558306932824</v>
+        <v>34.01558306932823</v>
       </c>
       <c r="J23" t="n">
-        <v>77.63744688178878</v>
+        <v>72.9936578626353</v>
       </c>
       <c r="K23" t="n">
-        <v>260.6481166474518</v>
+        <v>260.6481166474515</v>
       </c>
       <c r="L23" t="n">
-        <v>545.4191444354854</v>
+        <v>545.4191444354851</v>
       </c>
       <c r="M23" t="n">
-        <v>877.494076210501</v>
+        <v>877.4940762105008</v>
       </c>
       <c r="N23" t="n">
         <v>1199.425152563019</v>
@@ -6029,10 +6029,10 @@
         <v>1438.342144904381</v>
       </c>
       <c r="X23" t="n">
-        <v>1289.554775391033</v>
+        <v>1289.554775391032</v>
       </c>
       <c r="Y23" t="n">
-        <v>1124.782079998829</v>
+        <v>1124.782079998828</v>
       </c>
     </row>
     <row r="24">
@@ -6042,49 +6042,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>206.7686981475111</v>
+        <v>473.2061950800996</v>
       </c>
       <c r="C24" t="n">
-        <v>34.01558306932824</v>
+        <v>300.4530800019168</v>
       </c>
       <c r="D24" t="n">
-        <v>34.01558306932824</v>
+        <v>300.4530800019168</v>
       </c>
       <c r="E24" t="n">
-        <v>34.01558306932824</v>
+        <v>142.8435510047715</v>
       </c>
       <c r="F24" t="n">
-        <v>34.01558306932824</v>
+        <v>142.8435510047715</v>
       </c>
       <c r="G24" t="n">
-        <v>34.01558306932824</v>
+        <v>142.8435510047715</v>
       </c>
       <c r="H24" t="n">
-        <v>34.01558306932824</v>
+        <v>34.01558306932823</v>
       </c>
       <c r="I24" t="n">
-        <v>34.01558306932824</v>
+        <v>34.01558306932823</v>
       </c>
       <c r="J24" t="n">
-        <v>34.01558306932824</v>
+        <v>34.01558306932823</v>
       </c>
       <c r="K24" t="n">
-        <v>34.01558306932824</v>
+        <v>34.01558306932823</v>
       </c>
       <c r="L24" t="n">
-        <v>342.6951984864744</v>
+        <v>163.8609485707091</v>
       </c>
       <c r="M24" t="n">
-        <v>576.8756943603792</v>
+        <v>576.8756943603789</v>
       </c>
       <c r="N24" t="n">
-        <v>997.818534843316</v>
+        <v>997.8185348433158</v>
       </c>
       <c r="O24" t="n">
-        <v>1332.105128659001</v>
+        <v>1332.105128659</v>
       </c>
       <c r="P24" t="n">
-        <v>1583.973050344104</v>
+        <v>1583.973050344103</v>
       </c>
       <c r="Q24" t="n">
         <v>1700.779153466412</v>
@@ -6096,22 +6096,22 @@
         <v>1457.429992921665</v>
       </c>
       <c r="T24" t="n">
-        <v>1258.191441648482</v>
+        <v>1373.314664475359</v>
       </c>
       <c r="U24" t="n">
-        <v>1031.283735388339</v>
+        <v>1146.406958215216</v>
       </c>
       <c r="V24" t="n">
-        <v>812.7607689297889</v>
+        <v>912.155714740817</v>
       </c>
       <c r="W24" t="n">
-        <v>786.0665836398435</v>
+        <v>885.4615294508716</v>
       </c>
       <c r="X24" t="n">
-        <v>579.539685045421</v>
+        <v>678.9346308564491</v>
       </c>
       <c r="Y24" t="n">
-        <v>373.8112492690715</v>
+        <v>473.2061950800996</v>
       </c>
     </row>
     <row r="25">
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>34.01558306932824</v>
+        <v>69.19425232467894</v>
       </c>
       <c r="C25" t="n">
-        <v>34.01558306932824</v>
+        <v>69.19425232467894</v>
       </c>
       <c r="D25" t="n">
-        <v>34.01558306932824</v>
+        <v>34.01558306932823</v>
       </c>
       <c r="E25" t="n">
-        <v>34.01558306932824</v>
+        <v>34.01558306932823</v>
       </c>
       <c r="F25" t="n">
-        <v>34.01558306932824</v>
+        <v>34.01558306932823</v>
       </c>
       <c r="G25" t="n">
-        <v>34.01558306932824</v>
+        <v>34.01558306932823</v>
       </c>
       <c r="H25" t="n">
-        <v>34.01558306932824</v>
+        <v>34.01558306932823</v>
       </c>
       <c r="I25" t="n">
-        <v>34.01558306932824</v>
+        <v>34.01558306932823</v>
       </c>
       <c r="J25" t="n">
-        <v>34.01558306932824</v>
+        <v>34.01558306932823</v>
       </c>
       <c r="K25" t="n">
         <v>46.57488880375149</v>
@@ -6160,37 +6160,37 @@
         <v>294.2879893498773</v>
       </c>
       <c r="O25" t="n">
-        <v>361.5846532204216</v>
+        <v>361.5846532204217</v>
       </c>
       <c r="P25" t="n">
-        <v>395.9460936253112</v>
+        <v>395.9460936253113</v>
       </c>
       <c r="Q25" t="n">
-        <v>395.9460936253112</v>
+        <v>395.9460936253113</v>
       </c>
       <c r="R25" t="n">
-        <v>231.5384133204684</v>
+        <v>231.5384133204685</v>
       </c>
       <c r="S25" t="n">
-        <v>231.5384133204684</v>
+        <v>231.5384133204685</v>
       </c>
       <c r="T25" t="n">
-        <v>227.7399621592052</v>
+        <v>227.7399621592053</v>
       </c>
       <c r="U25" t="n">
-        <v>129.4529345317542</v>
+        <v>164.6316037871049</v>
       </c>
       <c r="V25" t="n">
-        <v>99.78197720449653</v>
+        <v>134.9606464598472</v>
       </c>
       <c r="W25" t="n">
-        <v>36.6198826848385</v>
+        <v>71.7985519401892</v>
       </c>
       <c r="X25" t="n">
-        <v>34.01558306932824</v>
+        <v>69.19425232467894</v>
       </c>
       <c r="Y25" t="n">
-        <v>34.01558306932824</v>
+        <v>69.19425232467894</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1523.926838310266</v>
+        <v>1523.926838310267</v>
       </c>
       <c r="C26" t="n">
-        <v>1296.736757508744</v>
+        <v>1296.736757508745</v>
       </c>
       <c r="D26" t="n">
-        <v>1080.031891782317</v>
+        <v>1080.031891782319</v>
       </c>
       <c r="E26" t="n">
-        <v>836.5459119137809</v>
+        <v>836.5459119137826</v>
       </c>
       <c r="F26" t="n">
-        <v>568.639904039938</v>
+        <v>568.639904039939</v>
       </c>
       <c r="G26" t="n">
-        <v>293.6288649853167</v>
+        <v>293.6288649853173</v>
       </c>
       <c r="H26" t="n">
-        <v>101.0221402831235</v>
+        <v>101.0221402831241</v>
       </c>
       <c r="I26" t="n">
-        <v>57.74611176186112</v>
+        <v>57.74611176186115</v>
       </c>
       <c r="J26" t="n">
-        <v>242.0142221029031</v>
+        <v>242.0142221029037</v>
       </c>
       <c r="K26" t="n">
-        <v>570.3149274163013</v>
+        <v>570.3149274163019</v>
       </c>
       <c r="L26" t="n">
-        <v>995.7322017329168</v>
+        <v>995.7322017329175</v>
       </c>
       <c r="M26" t="n">
-        <v>1468.453380036514</v>
+        <v>1468.453380036515</v>
       </c>
       <c r="N26" t="n">
-        <v>1931.030702917614</v>
+        <v>1931.030702917615</v>
       </c>
       <c r="O26" t="n">
-        <v>2329.538984592537</v>
+        <v>2329.538984592538</v>
       </c>
       <c r="P26" t="n">
-        <v>2653.325719101487</v>
+        <v>2653.325719101488</v>
       </c>
       <c r="Q26" t="n">
-        <v>2854.323443406753</v>
+        <v>2854.323443406754</v>
       </c>
       <c r="R26" t="n">
-        <v>2887.305588093056</v>
+        <v>2887.305588093057</v>
       </c>
       <c r="S26" t="n">
-        <v>2834.991625958909</v>
+        <v>2834.99162595891</v>
       </c>
       <c r="T26" t="n">
-        <v>2755.606166771331</v>
+        <v>2755.606166771332</v>
       </c>
       <c r="U26" t="n">
-        <v>2645.132738279652</v>
+        <v>2645.132738279653</v>
       </c>
       <c r="V26" t="n">
-        <v>2456.78293440381</v>
+        <v>2456.782934403811</v>
       </c>
       <c r="W26" t="n">
-        <v>2246.214044186519</v>
+        <v>2246.21404418652</v>
       </c>
       <c r="X26" t="n">
-        <v>2015.108303332244</v>
+        <v>2015.108303332245</v>
       </c>
       <c r="Y26" t="n">
-        <v>1768.017236599113</v>
+        <v>1768.017236599114</v>
       </c>
     </row>
     <row r="27">
@@ -6279,40 +6279,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>537.1509174258342</v>
+        <v>404.2615660570123</v>
       </c>
       <c r="C27" t="n">
-        <v>364.3978023476514</v>
+        <v>358.0082739645994</v>
       </c>
       <c r="D27" t="n">
-        <v>360.3114307423896</v>
+        <v>353.9219023593376</v>
       </c>
       <c r="E27" t="n">
-        <v>202.7019017452443</v>
+        <v>339.8143083979866</v>
       </c>
       <c r="F27" t="n">
-        <v>57.74611176186112</v>
+        <v>194.8585184146035</v>
       </c>
       <c r="G27" t="n">
-        <v>57.74611176186112</v>
+        <v>57.74611176186115</v>
       </c>
       <c r="H27" t="n">
-        <v>57.74611176186112</v>
+        <v>57.74611176186115</v>
       </c>
       <c r="I27" t="n">
-        <v>57.74611176186112</v>
+        <v>57.74611176186115</v>
       </c>
       <c r="J27" t="n">
-        <v>91.50904019075975</v>
+        <v>91.50904019075978</v>
       </c>
       <c r="K27" t="n">
-        <v>275.8208757881487</v>
+        <v>275.8208757881488</v>
       </c>
       <c r="L27" t="n">
-        <v>584.5004912052949</v>
+        <v>584.500491205295</v>
       </c>
       <c r="M27" t="n">
-        <v>997.5152369949648</v>
+        <v>997.5152369949649</v>
       </c>
       <c r="N27" t="n">
         <v>1436.859986145387</v>
@@ -6321,7 +6321,7 @@
         <v>1771.146579961072</v>
       </c>
       <c r="P27" t="n">
-        <v>2023.014501646174</v>
+        <v>2023.014501646175</v>
       </c>
       <c r="Q27" t="n">
         <v>2139.820604768483</v>
@@ -6333,22 +6333,22 @@
         <v>1896.471444223736</v>
       </c>
       <c r="T27" t="n">
-        <v>1830.122244319376</v>
+        <v>1697.232892950554</v>
       </c>
       <c r="U27" t="n">
-        <v>1603.214538059233</v>
+        <v>1470.325186690411</v>
       </c>
       <c r="V27" t="n">
-        <v>1368.963294584833</v>
+        <v>1236.073943216011</v>
       </c>
       <c r="W27" t="n">
-        <v>1116.448802918167</v>
+        <v>983.5594515493448</v>
       </c>
       <c r="X27" t="n">
-        <v>909.9219043237442</v>
+        <v>777.0325529549223</v>
       </c>
       <c r="Y27" t="n">
-        <v>704.1934685473947</v>
+        <v>571.3041171785727</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>147.4873360289558</v>
+        <v>147.4873360289556</v>
       </c>
       <c r="C28" t="n">
-        <v>121.9624499221214</v>
+        <v>121.9624499221213</v>
       </c>
       <c r="D28" t="n">
-        <v>114.9537117109264</v>
+        <v>114.9537117109263</v>
       </c>
       <c r="E28" t="n">
-        <v>109.9964304101559</v>
+        <v>109.9964304101558</v>
       </c>
       <c r="F28" t="n">
-        <v>105.8629902845315</v>
+        <v>105.8629902845314</v>
       </c>
       <c r="G28" t="n">
-        <v>80.01822806270386</v>
+        <v>80.01822806270383</v>
       </c>
       <c r="H28" t="n">
         <v>62.37609362090569</v>
       </c>
       <c r="I28" t="n">
-        <v>57.74611176186112</v>
+        <v>57.74611176186115</v>
       </c>
       <c r="J28" t="n">
-        <v>57.74611176186112</v>
+        <v>126.9853524557952</v>
       </c>
       <c r="K28" t="n">
-        <v>70.30541749628438</v>
+        <v>139.5446581902184</v>
       </c>
       <c r="L28" t="n">
-        <v>142.1806199551593</v>
+        <v>352.0661071776753</v>
       </c>
       <c r="M28" t="n">
-        <v>369.2020894519808</v>
+        <v>522.082941980228</v>
       </c>
       <c r="N28" t="n">
-        <v>470.8993705706579</v>
+        <v>611.5456170992394</v>
       </c>
       <c r="O28" t="n">
-        <v>678.8422809697843</v>
+        <v>678.8422809697838</v>
       </c>
       <c r="P28" t="n">
-        <v>853.8499679032558</v>
+        <v>853.8499679032554</v>
       </c>
       <c r="Q28" t="n">
-        <v>935.1270168717767</v>
+        <v>935.1270168717764</v>
       </c>
       <c r="R28" t="n">
-        <v>914.2212716027282</v>
+        <v>914.2212716027279</v>
       </c>
       <c r="S28" t="n">
-        <v>837.2804587673394</v>
+        <v>837.2804587673392</v>
       </c>
       <c r="T28" t="n">
-        <v>751.1636362651492</v>
+        <v>751.163636265149</v>
       </c>
       <c r="U28" t="n">
-        <v>605.7369065521217</v>
+        <v>605.7369065521215</v>
       </c>
       <c r="V28" t="n">
-        <v>493.747577883937</v>
+        <v>493.7475778839369</v>
       </c>
       <c r="W28" t="n">
-        <v>348.267112023352</v>
+        <v>348.2671120233518</v>
       </c>
       <c r="X28" t="n">
-        <v>263.3444410669147</v>
+        <v>263.3444410669145</v>
       </c>
       <c r="Y28" t="n">
-        <v>185.8881196706199</v>
+        <v>185.8881196706197</v>
       </c>
     </row>
     <row r="29">
@@ -6443,58 +6443,58 @@
         <v>1296.736757508745</v>
       </c>
       <c r="D29" t="n">
-        <v>1080.031891782318</v>
+        <v>1080.031891782319</v>
       </c>
       <c r="E29" t="n">
-        <v>836.5459119137817</v>
+        <v>836.545911913782</v>
       </c>
       <c r="F29" t="n">
-        <v>568.6399040399384</v>
+        <v>568.639904039939</v>
       </c>
       <c r="G29" t="n">
-        <v>293.6288649853167</v>
+        <v>293.6288649853173</v>
       </c>
       <c r="H29" t="n">
-        <v>101.0221402831233</v>
+        <v>101.0221402831235</v>
       </c>
       <c r="I29" t="n">
-        <v>57.74611176186114</v>
+        <v>57.74611176186112</v>
       </c>
       <c r="J29" t="n">
-        <v>242.0142221029035</v>
+        <v>242.0142221029037</v>
       </c>
       <c r="K29" t="n">
         <v>570.3149274163018</v>
       </c>
       <c r="L29" t="n">
-        <v>995.7322017329172</v>
+        <v>995.7322017329163</v>
       </c>
       <c r="M29" t="n">
-        <v>1468.453380036515</v>
+        <v>1468.453380036514</v>
       </c>
       <c r="N29" t="n">
-        <v>1931.030702917615</v>
+        <v>1931.030702917614</v>
       </c>
       <c r="O29" t="n">
-        <v>2329.538984592538</v>
+        <v>2329.538984592537</v>
       </c>
       <c r="P29" t="n">
-        <v>2653.325719101488</v>
+        <v>2653.325719101487</v>
       </c>
       <c r="Q29" t="n">
-        <v>2854.323443406754</v>
+        <v>2854.323443406752</v>
       </c>
       <c r="R29" t="n">
-        <v>2887.305588093057</v>
+        <v>2887.305588093056</v>
       </c>
       <c r="S29" t="n">
-        <v>2834.99162595891</v>
+        <v>2834.991625958908</v>
       </c>
       <c r="T29" t="n">
-        <v>2755.606166771332</v>
+        <v>2755.606166771331</v>
       </c>
       <c r="U29" t="n">
-        <v>2645.132738279653</v>
+        <v>2645.132738279652</v>
       </c>
       <c r="V29" t="n">
         <v>2456.782934403811</v>
@@ -6519,37 +6519,37 @@
         <v>537.1509174258342</v>
       </c>
       <c r="C30" t="n">
-        <v>364.3978023476515</v>
+        <v>364.3978023476514</v>
       </c>
       <c r="D30" t="n">
-        <v>216.8094957065953</v>
+        <v>360.3114307423896</v>
       </c>
       <c r="E30" t="n">
-        <v>59.19996670945002</v>
+        <v>202.7019017452442</v>
       </c>
       <c r="F30" t="n">
-        <v>57.74611176186114</v>
+        <v>57.74611176186112</v>
       </c>
       <c r="G30" t="n">
-        <v>57.74611176186114</v>
+        <v>57.74611176186112</v>
       </c>
       <c r="H30" t="n">
-        <v>57.74611176186114</v>
+        <v>57.74611176186112</v>
       </c>
       <c r="I30" t="n">
-        <v>57.74611176186114</v>
+        <v>57.74611176186112</v>
       </c>
       <c r="J30" t="n">
-        <v>91.50904019075976</v>
+        <v>91.50904019075975</v>
       </c>
       <c r="K30" t="n">
         <v>275.8208757881487</v>
       </c>
       <c r="L30" t="n">
-        <v>584.5004912052949</v>
+        <v>584.500491205295</v>
       </c>
       <c r="M30" t="n">
-        <v>997.5152369949648</v>
+        <v>997.5152369949649</v>
       </c>
       <c r="N30" t="n">
         <v>1436.859986145387</v>
@@ -6558,34 +6558,34 @@
         <v>1771.146579961072</v>
       </c>
       <c r="P30" t="n">
-        <v>2023.014501646174</v>
+        <v>2023.014501646175</v>
       </c>
       <c r="Q30" t="n">
         <v>2139.820604768483</v>
       </c>
       <c r="R30" t="n">
-        <v>2061.850163454432</v>
+        <v>2139.820604768483</v>
       </c>
       <c r="S30" t="n">
-        <v>1896.471444223736</v>
+        <v>1974.441885537787</v>
       </c>
       <c r="T30" t="n">
-        <v>1697.232892950554</v>
+        <v>1775.203334264604</v>
       </c>
       <c r="U30" t="n">
-        <v>1470.325186690411</v>
+        <v>1548.295628004461</v>
       </c>
       <c r="V30" t="n">
-        <v>1236.073943216011</v>
+        <v>1314.044384530062</v>
       </c>
       <c r="W30" t="n">
-        <v>983.5594515493448</v>
+        <v>1061.529892863395</v>
       </c>
       <c r="X30" t="n">
-        <v>777.0325529549223</v>
+        <v>855.0029942689729</v>
       </c>
       <c r="Y30" t="n">
-        <v>704.1934685473947</v>
+        <v>649.2745584926233</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>147.487336028956</v>
+        <v>147.4873360289555</v>
       </c>
       <c r="C31" t="n">
-        <v>121.9624499221216</v>
+        <v>121.9624499221212</v>
       </c>
       <c r="D31" t="n">
-        <v>114.9537117109266</v>
+        <v>114.9537117109263</v>
       </c>
       <c r="E31" t="n">
-        <v>109.996430410156</v>
+        <v>109.9964304101557</v>
       </c>
       <c r="F31" t="n">
-        <v>105.8629902845315</v>
+        <v>105.8629902845313</v>
       </c>
       <c r="G31" t="n">
-        <v>80.01822806270391</v>
+        <v>80.01822806270378</v>
       </c>
       <c r="H31" t="n">
-        <v>62.37609362090573</v>
+        <v>62.37609362090566</v>
       </c>
       <c r="I31" t="n">
-        <v>57.74611176186114</v>
+        <v>57.74611176186112</v>
       </c>
       <c r="J31" t="n">
-        <v>57.74611176186114</v>
+        <v>126.9853524557952</v>
       </c>
       <c r="K31" t="n">
-        <v>70.30541749628439</v>
+        <v>280.1909047188004</v>
       </c>
       <c r="L31" t="n">
-        <v>282.8268664837412</v>
+        <v>376.3385214519275</v>
       </c>
       <c r="M31" t="n">
-        <v>509.8483359805628</v>
+        <v>603.359990948749</v>
       </c>
       <c r="N31" t="n">
-        <v>692.8226660677615</v>
+        <v>833.4689125963423</v>
       </c>
       <c r="O31" t="n">
-        <v>760.1193299383059</v>
+        <v>900.7655764668867</v>
       </c>
       <c r="P31" t="n">
-        <v>935.1270168717774</v>
+        <v>935.1270168717763</v>
       </c>
       <c r="Q31" t="n">
-        <v>935.1270168717774</v>
+        <v>935.1270168717763</v>
       </c>
       <c r="R31" t="n">
-        <v>914.2212716027288</v>
+        <v>914.2212716027278</v>
       </c>
       <c r="S31" t="n">
-        <v>837.28045876734</v>
+        <v>837.280458767339</v>
       </c>
       <c r="T31" t="n">
-        <v>751.1636362651496</v>
+        <v>751.1636362651489</v>
       </c>
       <c r="U31" t="n">
-        <v>605.7369065521222</v>
+        <v>605.7369065521214</v>
       </c>
       <c r="V31" t="n">
-        <v>493.7475778839374</v>
+        <v>493.7475778839367</v>
       </c>
       <c r="W31" t="n">
-        <v>348.2671120233523</v>
+        <v>348.2671120233517</v>
       </c>
       <c r="X31" t="n">
-        <v>263.344441066915</v>
+        <v>263.3444410669144</v>
       </c>
       <c r="Y31" t="n">
-        <v>185.8881196706201</v>
+        <v>185.8881196706196</v>
       </c>
     </row>
     <row r="32">
@@ -6683,28 +6683,28 @@
         <v>1080.031891782318</v>
       </c>
       <c r="E32" t="n">
-        <v>836.5459119137813</v>
+        <v>836.5459119137815</v>
       </c>
       <c r="F32" t="n">
-        <v>568.6399040399383</v>
+        <v>568.6399040399385</v>
       </c>
       <c r="G32" t="n">
-        <v>293.6288649853167</v>
+        <v>293.6288649853161</v>
       </c>
       <c r="H32" t="n">
         <v>101.0221402831235</v>
       </c>
       <c r="I32" t="n">
-        <v>57.74611176186114</v>
+        <v>57.74611176186112</v>
       </c>
       <c r="J32" t="n">
-        <v>242.0142221029037</v>
+        <v>242.014222102903</v>
       </c>
       <c r="K32" t="n">
-        <v>570.3149274163018</v>
+        <v>570.3149274163017</v>
       </c>
       <c r="L32" t="n">
-        <v>995.7322017329174</v>
+        <v>995.7322017329172</v>
       </c>
       <c r="M32" t="n">
         <v>1468.453380036515</v>
@@ -6753,34 +6753,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>691.2654361286009</v>
+        <v>404.2615660570123</v>
       </c>
       <c r="C33" t="n">
-        <v>645.0121440361879</v>
+        <v>364.3978023476513</v>
       </c>
       <c r="D33" t="n">
-        <v>497.4238373951318</v>
+        <v>216.8094957065952</v>
       </c>
       <c r="E33" t="n">
-        <v>339.8143083979866</v>
+        <v>202.7019017452442</v>
       </c>
       <c r="F33" t="n">
-        <v>194.8585184146035</v>
+        <v>57.74611176186112</v>
       </c>
       <c r="G33" t="n">
-        <v>57.74611176186114</v>
+        <v>57.74611176186112</v>
       </c>
       <c r="H33" t="n">
-        <v>57.74611176186114</v>
+        <v>57.74611176186112</v>
       </c>
       <c r="I33" t="n">
-        <v>57.74611176186114</v>
+        <v>57.74611176186112</v>
       </c>
       <c r="J33" t="n">
-        <v>91.50904019075978</v>
+        <v>91.50904019075975</v>
       </c>
       <c r="K33" t="n">
-        <v>275.8208757881488</v>
+        <v>275.8208757881487</v>
       </c>
       <c r="L33" t="n">
         <v>584.500491205295</v>
@@ -6819,10 +6819,10 @@
         <v>983.5594515493448</v>
       </c>
       <c r="X33" t="n">
-        <v>920.5344879907166</v>
+        <v>777.0325529549223</v>
       </c>
       <c r="Y33" t="n">
-        <v>858.3079872501613</v>
+        <v>571.3041171785727</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>147.4873360289556</v>
+        <v>147.4873360289557</v>
       </c>
       <c r="C34" t="n">
-        <v>121.9624499221212</v>
+        <v>121.9624499221214</v>
       </c>
       <c r="D34" t="n">
-        <v>114.9537117109263</v>
+        <v>114.9537117109264</v>
       </c>
       <c r="E34" t="n">
-        <v>109.9964304101558</v>
+        <v>109.9964304101559</v>
       </c>
       <c r="F34" t="n">
         <v>105.8629902845314</v>
       </c>
       <c r="G34" t="n">
-        <v>80.0182280627038</v>
+        <v>80.01822806270384</v>
       </c>
       <c r="H34" t="n">
-        <v>62.37609362090567</v>
+        <v>62.37609362090569</v>
       </c>
       <c r="I34" t="n">
-        <v>57.74611176186114</v>
+        <v>57.74611176186112</v>
       </c>
       <c r="J34" t="n">
-        <v>57.74611176186114</v>
+        <v>57.74611176186112</v>
       </c>
       <c r="K34" t="n">
-        <v>82.5400234959495</v>
+        <v>210.9516640248663</v>
       </c>
       <c r="L34" t="n">
-        <v>154.4152259548245</v>
+        <v>423.4731130123232</v>
       </c>
       <c r="M34" t="n">
-        <v>240.790448923064</v>
+        <v>509.8483359805628</v>
       </c>
       <c r="N34" t="n">
-        <v>470.8993705706573</v>
+        <v>739.9572576281561</v>
       </c>
       <c r="O34" t="n">
-        <v>678.8422809697837</v>
+        <v>807.2539214987005</v>
       </c>
       <c r="P34" t="n">
-        <v>853.8499679032553</v>
+        <v>935.1270168717767</v>
       </c>
       <c r="Q34" t="n">
-        <v>935.1270168717763</v>
+        <v>935.1270168717767</v>
       </c>
       <c r="R34" t="n">
-        <v>914.2212716027278</v>
+        <v>914.2212716027282</v>
       </c>
       <c r="S34" t="n">
-        <v>837.280458767339</v>
+        <v>837.2804587673394</v>
       </c>
       <c r="T34" t="n">
-        <v>751.1636362651489</v>
+        <v>751.1636362651492</v>
       </c>
       <c r="U34" t="n">
-        <v>605.7369065521214</v>
+        <v>605.7369065521217</v>
       </c>
       <c r="V34" t="n">
-        <v>493.7475778839367</v>
+        <v>493.747577883937</v>
       </c>
       <c r="W34" t="n">
-        <v>348.2671120233517</v>
+        <v>348.267112023352</v>
       </c>
       <c r="X34" t="n">
-        <v>263.3444410669144</v>
+        <v>263.3444410669147</v>
       </c>
       <c r="Y34" t="n">
-        <v>185.8881196706196</v>
+        <v>185.8881196706199</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>965.4267187649579</v>
+        <v>965.4267187649581</v>
       </c>
       <c r="C35" t="n">
-        <v>820.1680268861004</v>
+        <v>820.1680268861002</v>
       </c>
       <c r="D35" t="n">
-        <v>685.3945500823384</v>
+        <v>685.3945500823381</v>
       </c>
       <c r="E35" t="n">
-        <v>523.8399591364662</v>
+        <v>523.8399591364659</v>
       </c>
       <c r="F35" t="n">
-        <v>337.8653401852874</v>
+        <v>337.8653401852873</v>
       </c>
       <c r="G35" t="n">
         <v>144.7856900533298</v>
@@ -6935,7 +6935,7 @@
         <v>34.11035427380075</v>
       </c>
       <c r="J35" t="n">
-        <v>77.73221808626133</v>
+        <v>77.73221808626135</v>
       </c>
       <c r="K35" t="n">
         <v>265.3866768710776</v>
@@ -6944,7 +6944,7 @@
         <v>550.1577046591112</v>
       </c>
       <c r="M35" t="n">
-        <v>882.2326364341269</v>
+        <v>882.2326364341268</v>
       </c>
       <c r="N35" t="n">
         <v>1204.163712786645</v>
@@ -7020,7 +7020,7 @@
         <v>34.11035427380075</v>
       </c>
       <c r="L36" t="n">
-        <v>167.4267151389876</v>
+        <v>167.4267151389877</v>
       </c>
       <c r="M36" t="n">
         <v>580.4414609286575</v>
@@ -7047,19 +7047,19 @@
         <v>1262.930001872108</v>
       </c>
       <c r="U36" t="n">
-        <v>1036.022295611965</v>
+        <v>1047.493766026923</v>
       </c>
       <c r="V36" t="n">
-        <v>801.7710521375659</v>
+        <v>1038.675846510983</v>
       </c>
       <c r="W36" t="n">
-        <v>549.2565604708992</v>
+        <v>786.1613548443161</v>
       </c>
       <c r="X36" t="n">
-        <v>342.7296618764767</v>
+        <v>579.6344562498936</v>
       </c>
       <c r="Y36" t="n">
-        <v>342.7296618764767</v>
+        <v>373.906020473544</v>
       </c>
     </row>
     <row r="37">
@@ -7096,46 +7096,46 @@
         <v>34.11035427380075</v>
       </c>
       <c r="K37" t="n">
-        <v>46.66966000822403</v>
+        <v>46.66966000822401</v>
       </c>
       <c r="L37" t="n">
-        <v>118.544862467099</v>
+        <v>118.5448624670989</v>
       </c>
       <c r="M37" t="n">
         <v>204.9200854353385</v>
       </c>
       <c r="N37" t="n">
-        <v>294.3827605543499</v>
+        <v>294.3827605543498</v>
       </c>
       <c r="O37" t="n">
-        <v>361.6794244248943</v>
+        <v>361.6794244248942</v>
       </c>
       <c r="P37" t="n">
-        <v>396.0408648297839</v>
+        <v>396.0408648297838</v>
       </c>
       <c r="Q37" t="n">
-        <v>396.0408648297839</v>
+        <v>396.0408648297838</v>
       </c>
       <c r="R37" t="n">
-        <v>396.0408648297839</v>
+        <v>396.0408648297838</v>
       </c>
       <c r="S37" t="n">
-        <v>396.0408648297839</v>
+        <v>396.0408648297838</v>
       </c>
       <c r="T37" t="n">
-        <v>391.855431250258</v>
+        <v>391.8554312502579</v>
       </c>
       <c r="U37" t="n">
-        <v>328.3600904598948</v>
+        <v>328.3600904598946</v>
       </c>
       <c r="V37" t="n">
-        <v>298.3021507143744</v>
+        <v>298.3021507143742</v>
       </c>
       <c r="W37" t="n">
-        <v>234.7530737764536</v>
+        <v>234.7530737764535</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7617917426806</v>
+        <v>231.7617917426805</v>
       </c>
       <c r="Y37" t="n">
         <v>34.11035427380075</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>965.4267187649573</v>
+        <v>965.4267187649581</v>
       </c>
       <c r="C38" t="n">
-        <v>820.1680268860997</v>
+        <v>820.1680268861004</v>
       </c>
       <c r="D38" t="n">
-        <v>685.3945500823377</v>
+        <v>685.3945500823384</v>
       </c>
       <c r="E38" t="n">
-        <v>523.8399591364655</v>
+        <v>523.8399591364662</v>
       </c>
       <c r="F38" t="n">
-        <v>337.8653401852869</v>
+        <v>337.8653401852876</v>
       </c>
       <c r="G38" t="n">
         <v>144.7856900533298</v>
@@ -7175,13 +7175,13 @@
         <v>77.73221808626135</v>
       </c>
       <c r="K38" t="n">
-        <v>265.3866768710775</v>
+        <v>265.3866768710777</v>
       </c>
       <c r="L38" t="n">
         <v>550.1577046591112</v>
       </c>
       <c r="M38" t="n">
-        <v>882.2326364341268</v>
+        <v>882.2326364341269</v>
       </c>
       <c r="N38" t="n">
         <v>1204.163712786645</v>
@@ -7205,19 +7205,19 @@
         <v>1705.517713690038</v>
       </c>
       <c r="U38" t="n">
-        <v>1676.975674121022</v>
+        <v>1676.975674121023</v>
       </c>
       <c r="V38" t="n">
-        <v>1570.557259167845</v>
+        <v>1570.557259167846</v>
       </c>
       <c r="W38" t="n">
-        <v>1441.919757873218</v>
+        <v>1441.919757873219</v>
       </c>
       <c r="X38" t="n">
         <v>1292.745405941607</v>
       </c>
       <c r="Y38" t="n">
-        <v>1127.58572813114</v>
+        <v>1127.585728131141</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>499.4075659764229</v>
+        <v>256.6386947725663</v>
       </c>
       <c r="C39" t="n">
-        <v>326.65445089824</v>
+        <v>256.6386947725663</v>
       </c>
       <c r="D39" t="n">
-        <v>179.0661442571839</v>
+        <v>256.6386947725663</v>
       </c>
       <c r="E39" t="n">
-        <v>179.0661442571839</v>
+        <v>256.6386947725663</v>
       </c>
       <c r="F39" t="n">
-        <v>34.11035427380075</v>
+        <v>111.6829047891831</v>
       </c>
       <c r="G39" t="n">
-        <v>34.11035427380075</v>
+        <v>111.6829047891831</v>
       </c>
       <c r="H39" t="n">
-        <v>34.11035427380075</v>
+        <v>111.6829047891831</v>
       </c>
       <c r="I39" t="n">
         <v>34.11035427380075</v>
@@ -7257,7 +7257,7 @@
         <v>34.11035427380075</v>
       </c>
       <c r="L39" t="n">
-        <v>167.4267151389876</v>
+        <v>342.789969690947</v>
       </c>
       <c r="M39" t="n">
         <v>580.4414609286575</v>
@@ -7284,19 +7284,19 @@
         <v>1262.930001872108</v>
       </c>
       <c r="U39" t="n">
-        <v>1261.455619570424</v>
+        <v>1036.022295611965</v>
       </c>
       <c r="V39" t="n">
-        <v>1027.204376096024</v>
+        <v>1027.204376096025</v>
       </c>
       <c r="W39" t="n">
-        <v>774.6898844293577</v>
+        <v>774.6898844293579</v>
       </c>
       <c r="X39" t="n">
-        <v>568.1629858349352</v>
+        <v>568.1629858349354</v>
       </c>
       <c r="Y39" t="n">
-        <v>568.1629858349352</v>
+        <v>362.4345500585858</v>
       </c>
     </row>
     <row r="40">
@@ -7333,46 +7333,46 @@
         <v>34.11035427380075</v>
       </c>
       <c r="K40" t="n">
-        <v>46.66966000822403</v>
+        <v>46.66966000822401</v>
       </c>
       <c r="L40" t="n">
-        <v>118.544862467099</v>
+        <v>118.5448624670989</v>
       </c>
       <c r="M40" t="n">
         <v>204.9200854353385</v>
       </c>
       <c r="N40" t="n">
-        <v>294.3827605543499</v>
+        <v>294.3827605543498</v>
       </c>
       <c r="O40" t="n">
-        <v>361.6794244248943</v>
+        <v>361.6794244248942</v>
       </c>
       <c r="P40" t="n">
-        <v>396.0408648297839</v>
+        <v>396.0408648297838</v>
       </c>
       <c r="Q40" t="n">
-        <v>396.0408648297839</v>
+        <v>396.0408648297838</v>
       </c>
       <c r="R40" t="n">
-        <v>396.0408648297839</v>
+        <v>396.0408648297838</v>
       </c>
       <c r="S40" t="n">
-        <v>396.0408648297839</v>
+        <v>198.3894273609041</v>
       </c>
       <c r="T40" t="n">
-        <v>391.855431250258</v>
+        <v>194.2039937813782</v>
       </c>
       <c r="U40" t="n">
-        <v>328.3600904598948</v>
+        <v>130.708652991015</v>
       </c>
       <c r="V40" t="n">
-        <v>298.3021507143744</v>
+        <v>100.6507132454946</v>
       </c>
       <c r="W40" t="n">
-        <v>234.7530737764536</v>
+        <v>37.10163630757377</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7617917426806</v>
+        <v>34.11035427380075</v>
       </c>
       <c r="Y40" t="n">
         <v>34.11035427380075</v>
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>981.325790171824</v>
+        <v>981.3257901718239</v>
       </c>
       <c r="C41" t="n">
-        <v>833.5211685578798</v>
+        <v>833.5211685578801</v>
       </c>
       <c r="D41" t="n">
-        <v>696.2017620190313</v>
+        <v>696.2017620190315</v>
       </c>
       <c r="E41" t="n">
-        <v>532.1012413380727</v>
+        <v>532.1012413380729</v>
       </c>
       <c r="F41" t="n">
-        <v>343.5806926518076</v>
+        <v>343.5806926518077</v>
       </c>
       <c r="G41" t="n">
         <v>147.9551127847639</v>
       </c>
       <c r="H41" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014847</v>
       </c>
       <c r="I41" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014847</v>
       </c>
       <c r="J41" t="n">
         <v>78.35571108260902</v>
@@ -7421,19 +7421,19 @@
         <v>882.8561294304745</v>
       </c>
       <c r="N41" t="n">
-        <v>1235.33836260403</v>
+        <v>1204.787205782993</v>
       </c>
       <c r="O41" t="n">
-        <v>1493.200397750371</v>
+        <v>1466.667623488305</v>
       </c>
       <c r="P41" t="n">
-        <v>1676.340885730739</v>
+        <v>1649.808111468673</v>
       </c>
       <c r="Q41" t="n">
-        <v>1736.692363507423</v>
+        <v>1710.159589245356</v>
       </c>
       <c r="R41" t="n">
-        <v>1736.692363507423</v>
+        <v>1710.159589245356</v>
       </c>
       <c r="S41" t="n">
         <v>1736.692363507423</v>
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>339.9316829083499</v>
+        <v>352.4427523317144</v>
       </c>
       <c r="C42" t="n">
-        <v>339.9316829083499</v>
+        <v>179.6896372535316</v>
       </c>
       <c r="D42" t="n">
-        <v>192.3433762672938</v>
+        <v>179.6896372535316</v>
       </c>
       <c r="E42" t="n">
-        <v>34.73384727014845</v>
+        <v>179.6896372535316</v>
       </c>
       <c r="F42" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014847</v>
       </c>
       <c r="G42" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014847</v>
       </c>
       <c r="H42" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014847</v>
       </c>
       <c r="I42" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014847</v>
       </c>
       <c r="J42" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014847</v>
       </c>
       <c r="K42" t="n">
-        <v>34.73384727014845</v>
+        <v>190.8856391265704</v>
       </c>
       <c r="L42" t="n">
-        <v>190.8856391265699</v>
+        <v>190.8856391265704</v>
       </c>
       <c r="M42" t="n">
-        <v>603.9003849162398</v>
+        <v>603.9003849162402</v>
       </c>
       <c r="N42" t="n">
-        <v>1033.731744884327</v>
+        <v>1033.731744884328</v>
       </c>
       <c r="O42" t="n">
         <v>1368.018338700012</v>
       </c>
       <c r="P42" t="n">
-        <v>1619.886260385114</v>
+        <v>1619.886260385115</v>
       </c>
       <c r="Q42" t="n">
         <v>1736.692363507423</v>
       </c>
       <c r="R42" t="n">
-        <v>1658.721922193372</v>
+        <v>1736.692363507423</v>
       </c>
       <c r="S42" t="n">
-        <v>1658.721922193372</v>
+        <v>1571.313644276727</v>
       </c>
       <c r="T42" t="n">
-        <v>1459.483370920189</v>
+        <v>1372.075093003544</v>
       </c>
       <c r="U42" t="n">
-        <v>1232.575664660046</v>
+        <v>1145.167386743401</v>
       </c>
       <c r="V42" t="n">
-        <v>1171.744060067349</v>
+        <v>1133.803537492375</v>
       </c>
       <c r="W42" t="n">
-        <v>919.2295684006824</v>
+        <v>881.2890458257078</v>
       </c>
       <c r="X42" t="n">
-        <v>712.7026698062599</v>
+        <v>674.7621472312853</v>
       </c>
       <c r="Y42" t="n">
-        <v>506.9742340299103</v>
+        <v>519.4853034532748</v>
       </c>
     </row>
     <row r="43">
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>203.7606684127771</v>
+        <v>34.73384727014847</v>
       </c>
       <c r="C43" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014847</v>
       </c>
       <c r="D43" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014847</v>
       </c>
       <c r="E43" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014847</v>
       </c>
       <c r="F43" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014847</v>
       </c>
       <c r="G43" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014847</v>
       </c>
       <c r="H43" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014847</v>
       </c>
       <c r="I43" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014847</v>
       </c>
       <c r="J43" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014847</v>
       </c>
       <c r="K43" t="n">
         <v>47.29315300457173</v>
@@ -7579,40 +7579,40 @@
         <v>205.5435784316862</v>
       </c>
       <c r="N43" t="n">
-        <v>295.0062535506976</v>
+        <v>295.0062535506975</v>
       </c>
       <c r="O43" t="n">
-        <v>362.302917421242</v>
+        <v>362.3029174212418</v>
       </c>
       <c r="P43" t="n">
-        <v>396.6643578261316</v>
+        <v>396.6643578261314</v>
       </c>
       <c r="Q43" t="n">
-        <v>396.6643578261316</v>
+        <v>396.6643578261314</v>
       </c>
       <c r="R43" t="n">
-        <v>396.6643578261316</v>
+        <v>232.2566775212887</v>
       </c>
       <c r="S43" t="n">
-        <v>396.6643578261316</v>
+        <v>232.2566775212887</v>
       </c>
       <c r="T43" t="n">
-        <v>389.9329945115192</v>
+        <v>225.5253142066763</v>
       </c>
       <c r="U43" t="n">
-        <v>323.8917239860695</v>
+        <v>159.4840436812266</v>
       </c>
       <c r="V43" t="n">
-        <v>291.2878545054626</v>
+        <v>126.8801742006198</v>
       </c>
       <c r="W43" t="n">
-        <v>225.1928478324554</v>
+        <v>40.27105903900791</v>
       </c>
       <c r="X43" t="n">
-        <v>203.7606684127771</v>
+        <v>34.73384727014847</v>
       </c>
       <c r="Y43" t="n">
-        <v>203.7606684127771</v>
+        <v>34.73384727014847</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>981.3257901718242</v>
+        <v>981.3257901718241</v>
       </c>
       <c r="C44" t="n">
         <v>833.5211685578803</v>
@@ -7640,58 +7640,58 @@
         <v>147.9551127847639</v>
       </c>
       <c r="H44" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014844</v>
       </c>
       <c r="I44" t="n">
-        <v>34.73384727014845</v>
+        <v>65.2850040911854</v>
       </c>
       <c r="J44" t="n">
-        <v>78.35571108260956</v>
+        <v>108.9068679036459</v>
       </c>
       <c r="K44" t="n">
-        <v>266.0101698674266</v>
+        <v>296.5613266884621</v>
       </c>
       <c r="L44" t="n">
-        <v>550.7811976554613</v>
+        <v>581.3323544764958</v>
       </c>
       <c r="M44" t="n">
-        <v>882.8561294304779</v>
+        <v>913.4072862515114</v>
       </c>
       <c r="N44" t="n">
-        <v>1235.338362604027</v>
+        <v>1235.338362604029</v>
       </c>
       <c r="O44" t="n">
-        <v>1493.20039775037</v>
+        <v>1493.200397750371</v>
       </c>
       <c r="P44" t="n">
         <v>1676.340885730739</v>
       </c>
       <c r="Q44" t="n">
-        <v>1736.692363507423</v>
+        <v>1736.692363507422</v>
       </c>
       <c r="R44" t="n">
-        <v>1736.692363507423</v>
+        <v>1736.692363507422</v>
       </c>
       <c r="S44" t="n">
-        <v>1736.692363507423</v>
+        <v>1736.692363507422</v>
       </c>
       <c r="T44" t="n">
-        <v>1736.692363507423</v>
+        <v>1736.692363507422</v>
       </c>
       <c r="U44" t="n">
         <v>1705.604394203321</v>
       </c>
       <c r="V44" t="n">
-        <v>1596.640049515058</v>
+        <v>1596.640049515057</v>
       </c>
       <c r="W44" t="n">
-        <v>1465.456618485345</v>
+        <v>1465.456618485344</v>
       </c>
       <c r="X44" t="n">
-        <v>1313.736336818647</v>
+        <v>1313.736336818646</v>
       </c>
       <c r="Y44" t="n">
-        <v>1146.030729273094</v>
+        <v>1146.030729273093</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>745.971433560956</v>
+        <v>200.3718760691343</v>
       </c>
       <c r="C45" t="n">
-        <v>573.2183184827732</v>
+        <v>200.3718760691343</v>
       </c>
       <c r="D45" t="n">
-        <v>425.6300118417171</v>
+        <v>200.3718760691343</v>
       </c>
       <c r="E45" t="n">
-        <v>425.6300118417171</v>
+        <v>200.3718760691343</v>
       </c>
       <c r="F45" t="n">
-        <v>280.674221858334</v>
+        <v>200.3718760691343</v>
       </c>
       <c r="G45" t="n">
-        <v>143.5618152055916</v>
+        <v>112.3063977855308</v>
       </c>
       <c r="H45" t="n">
-        <v>34.73384727014845</v>
+        <v>112.3063977855308</v>
       </c>
       <c r="I45" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014844</v>
       </c>
       <c r="J45" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014844</v>
       </c>
       <c r="K45" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014844</v>
       </c>
       <c r="L45" t="n">
-        <v>343.4134626872954</v>
+        <v>190.8856391265696</v>
       </c>
       <c r="M45" t="n">
-        <v>603.900384916238</v>
+        <v>603.9003849162394</v>
       </c>
       <c r="N45" t="n">
-        <v>1033.731744884325</v>
+        <v>1033.731744884326</v>
       </c>
       <c r="O45" t="n">
-        <v>1368.01833870001</v>
+        <v>1368.018338700011</v>
       </c>
       <c r="P45" t="n">
         <v>1619.886260385114</v>
       </c>
       <c r="Q45" t="n">
-        <v>1736.692363507423</v>
+        <v>1736.692363507422</v>
       </c>
       <c r="R45" t="n">
-        <v>1658.721922193372</v>
+        <v>1658.721922193371</v>
       </c>
       <c r="S45" t="n">
         <v>1493.343202962676</v>
       </c>
       <c r="T45" t="n">
-        <v>1386.641073413331</v>
+        <v>1493.343202962676</v>
       </c>
       <c r="U45" t="n">
-        <v>1382.62076137656</v>
+        <v>1266.435496702533</v>
       </c>
       <c r="V45" t="n">
-        <v>1371.256912125533</v>
+        <v>1032.184253228133</v>
       </c>
       <c r="W45" t="n">
-        <v>1118.742420458866</v>
+        <v>779.6697615614668</v>
       </c>
       <c r="X45" t="n">
-        <v>1118.742420458866</v>
+        <v>573.1428629670443</v>
       </c>
       <c r="Y45" t="n">
-        <v>913.0139846825165</v>
+        <v>367.4144271906947</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014844</v>
       </c>
       <c r="C46" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014844</v>
       </c>
       <c r="D46" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014844</v>
       </c>
       <c r="E46" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014844</v>
       </c>
       <c r="F46" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014844</v>
       </c>
       <c r="G46" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014844</v>
       </c>
       <c r="H46" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014844</v>
       </c>
       <c r="I46" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014844</v>
       </c>
       <c r="J46" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014844</v>
       </c>
       <c r="K46" t="n">
-        <v>47.29315300457205</v>
+        <v>47.29315300457171</v>
       </c>
       <c r="L46" t="n">
-        <v>119.1683554634474</v>
+        <v>119.1683554634466</v>
       </c>
       <c r="M46" t="n">
-        <v>205.5435784316874</v>
+        <v>205.5435784316862</v>
       </c>
       <c r="N46" t="n">
-        <v>295.0062535506992</v>
+        <v>295.0062535506975</v>
       </c>
       <c r="O46" t="n">
-        <v>362.3029174212439</v>
+        <v>362.3029174212418</v>
       </c>
       <c r="P46" t="n">
-        <v>396.6643578261339</v>
+        <v>396.6643578261314</v>
       </c>
       <c r="Q46" t="n">
-        <v>336.0897250743118</v>
+        <v>396.6643578261314</v>
       </c>
       <c r="R46" t="n">
-        <v>336.0897250743118</v>
+        <v>396.6643578261314</v>
       </c>
       <c r="S46" t="n">
-        <v>336.0897250743118</v>
+        <v>396.6643578261314</v>
       </c>
       <c r="T46" t="n">
-        <v>329.3583617596994</v>
+        <v>389.9329945115191</v>
       </c>
       <c r="U46" t="n">
-        <v>263.3170912342497</v>
+        <v>138.9699351926219</v>
       </c>
       <c r="V46" t="n">
-        <v>106.3660657120152</v>
+        <v>106.3660657120151</v>
       </c>
       <c r="W46" t="n">
-        <v>40.27105903900792</v>
+        <v>40.27105903900788</v>
       </c>
       <c r="X46" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014844</v>
       </c>
       <c r="Y46" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014844</v>
       </c>
     </row>
   </sheetData>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>171.1697838000139</v>
+        <v>171.1697838000138</v>
       </c>
       <c r="K11" t="n">
         <v>337.1112290740114</v>
@@ -8769,10 +8769,10 @@
         <v>97.03070864402656</v>
       </c>
       <c r="K12" t="n">
-        <v>88.87027518258789</v>
+        <v>220.0272100324675</v>
       </c>
       <c r="L12" t="n">
-        <v>205.0333026350265</v>
+        <v>73.87636778514681</v>
       </c>
       <c r="M12" t="n">
         <v>484.3332662999999</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>171.1697838000139</v>
+        <v>171.1697838000138</v>
       </c>
       <c r="K14" t="n">
         <v>337.1112290740114</v>
@@ -9006,7 +9006,7 @@
         <v>97.03070864402656</v>
       </c>
       <c r="K15" t="n">
-        <v>88.87027518258789</v>
+        <v>88.87027518258787</v>
       </c>
       <c r="L15" t="n">
         <v>205.0333026350265</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>171.1697838000139</v>
+        <v>171.1697838000138</v>
       </c>
       <c r="K17" t="n">
         <v>337.1112290740114</v>
@@ -9243,13 +9243,13 @@
         <v>97.03070864402656</v>
       </c>
       <c r="K18" t="n">
-        <v>220.0272100324676</v>
+        <v>88.87027518258787</v>
       </c>
       <c r="L18" t="n">
-        <v>73.87636778514681</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M18" t="n">
-        <v>484.3332662999999</v>
+        <v>303.6926098194289</v>
       </c>
       <c r="N18" t="n">
         <v>479.9282827844821</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>171.1697838000139</v>
+        <v>171.1697838000138</v>
       </c>
       <c r="K20" t="n">
         <v>337.1112290740114</v>
@@ -9477,16 +9477,16 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>131.1346767540252</v>
+        <v>97.03070864402656</v>
       </c>
       <c r="K21" t="n">
-        <v>275.0438464930818</v>
+        <v>88.87027518258787</v>
       </c>
       <c r="L21" t="n">
-        <v>73.87636778514681</v>
+        <v>205.0333026350265</v>
       </c>
       <c r="M21" t="n">
-        <v>395.2126617293871</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N21" t="n">
         <v>479.9282827844821</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>175.8604797789567</v>
+        <v>171.1697838000138</v>
       </c>
       <c r="K23" t="n">
-        <v>332.4205330950688</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L23" t="n">
         <v>434.3676631324684</v>
@@ -9717,13 +9717,13 @@
         <v>97.03070864402656</v>
       </c>
       <c r="K24" t="n">
-        <v>88.87027518258789</v>
+        <v>88.87027518258787</v>
       </c>
       <c r="L24" t="n">
-        <v>385.6739591155975</v>
+        <v>205.0333026350265</v>
       </c>
       <c r="M24" t="n">
-        <v>303.6926098194292</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N24" t="n">
         <v>479.9282827844821</v>
@@ -10662,19 +10662,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>97.03070864402655</v>
+        <v>97.03070864402656</v>
       </c>
       <c r="K36" t="n">
-        <v>88.87027518258785</v>
+        <v>88.87027518258787</v>
       </c>
       <c r="L36" t="n">
-        <v>208.5393585580628</v>
+        <v>208.5393585580629</v>
       </c>
       <c r="M36" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N36" t="n">
-        <v>481.1129228403885</v>
+        <v>481.1129228403886</v>
       </c>
       <c r="O36" t="n">
         <v>409.6168120477987</v>
@@ -10899,19 +10899,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>97.03070864402655</v>
+        <v>97.03070864402656</v>
       </c>
       <c r="K39" t="n">
-        <v>88.87027518258785</v>
+        <v>88.87027518258787</v>
       </c>
       <c r="L39" t="n">
-        <v>208.5393585580628</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M39" t="n">
-        <v>484.3332662999999</v>
+        <v>307.1986657424653</v>
       </c>
       <c r="N39" t="n">
-        <v>481.1129228403885</v>
+        <v>481.1129228403886</v>
       </c>
       <c r="O39" t="n">
         <v>409.6168120477987</v>
@@ -11136,19 +11136,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>97.03070864402655</v>
+        <v>97.03070864402656</v>
       </c>
       <c r="K42" t="n">
-        <v>88.87027518258785</v>
+        <v>246.5993578658423</v>
       </c>
       <c r="L42" t="n">
-        <v>231.6054504684007</v>
+        <v>73.87636778514681</v>
       </c>
       <c r="M42" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N42" t="n">
-        <v>488.9065852947348</v>
+        <v>488.906585294735</v>
       </c>
       <c r="O42" t="n">
         <v>409.6168120477987</v>
@@ -11373,19 +11373,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>97.03070864402623</v>
+        <v>97.03070864402656</v>
       </c>
       <c r="K45" t="n">
-        <v>88.87027518258731</v>
+        <v>88.87027518258787</v>
       </c>
       <c r="L45" t="n">
-        <v>385.6739591155975</v>
+        <v>231.6054504684005</v>
       </c>
       <c r="M45" t="n">
-        <v>330.2647576527997</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N45" t="n">
-        <v>488.9065852947339</v>
+        <v>488.9065852947347</v>
       </c>
       <c r="O45" t="n">
         <v>409.6168120477987</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>166.2938776104468</v>
+        <v>244.8065201724103</v>
       </c>
       <c r="D11" t="n">
         <v>234.426157248066</v>
@@ -23273,7 +23273,7 @@
         <v>292.1492688429794</v>
       </c>
       <c r="H11" t="n">
-        <v>210.5689976340753</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>132.0563550721112</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>132.0563550721113</v>
       </c>
       <c r="C14" t="n">
-        <v>166.2938776104468</v>
+        <v>244.8065201724103</v>
       </c>
       <c r="D14" t="n">
         <v>234.426157248066</v>
@@ -23510,7 +23510,7 @@
         <v>292.1492688429794</v>
       </c>
       <c r="H14" t="n">
-        <v>210.5689976340753</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>81106.82224513739</v>
+        <v>81106.8222451374</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>110158.5909185751</v>
+        <v>110158.5909185752</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>81106.82224513743</v>
+        <v>81106.82224513737</v>
       </c>
       <c r="M3" t="n">
-        <v>97223.33570367849</v>
+        <v>97223.3357036786</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>32405.88661632406</v>
+        <v>32405.88661632417</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,7 +26424,7 @@
         <v>432620.554261892</v>
       </c>
       <c r="E4" t="n">
-        <v>304175.4902391293</v>
+        <v>304175.4902391292</v>
       </c>
       <c r="F4" t="n">
         <v>304175.4902391293</v>
@@ -26433,7 +26433,7 @@
         <v>369769.5259031368</v>
       </c>
       <c r="H4" t="n">
-        <v>369769.5259031367</v>
+        <v>369769.5259031368</v>
       </c>
       <c r="I4" t="n">
         <v>369769.5259031368</v>
@@ -26454,10 +26454,10 @@
         <v>369693.4668545821</v>
       </c>
       <c r="O4" t="n">
+        <v>369551.1473549659</v>
+      </c>
+      <c r="P4" t="n">
         <v>369551.1473549658</v>
-      </c>
-      <c r="P4" t="n">
-        <v>369551.1473549653</v>
       </c>
     </row>
     <row r="5">
@@ -26488,16 +26488,16 @@
         <v>47503.8467434152</v>
       </c>
       <c r="I5" t="n">
-        <v>47503.84674341521</v>
+        <v>47503.8467434152</v>
       </c>
       <c r="J5" t="n">
-        <v>58687.82962108241</v>
+        <v>58687.82962108243</v>
       </c>
       <c r="K5" t="n">
-        <v>58687.82962108242</v>
+        <v>58687.8296210824</v>
       </c>
       <c r="L5" t="n">
-        <v>58687.82962108243</v>
+        <v>58687.8296210824</v>
       </c>
       <c r="M5" t="n">
         <v>47543.66496614261</v>
@@ -26506,10 +26506,10 @@
         <v>47543.66496614261</v>
       </c>
       <c r="O5" t="n">
+        <v>47805.62621413688</v>
+      </c>
+      <c r="P5" t="n">
         <v>47805.62621413686</v>
-      </c>
-      <c r="P5" t="n">
-        <v>47805.62621413689</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-466248.154261892</v>
+        <v>-466252.56183904</v>
       </c>
       <c r="C6" t="n">
-        <v>-466248.154261892</v>
+        <v>-466252.56183904</v>
       </c>
       <c r="D6" t="n">
-        <v>-466248.154261892</v>
+        <v>-466252.56183904</v>
       </c>
       <c r="E6" t="n">
-        <v>-673156.1216155682</v>
+        <v>-673444.5707324302</v>
       </c>
       <c r="F6" t="n">
-        <v>-343156.1251833864</v>
+        <v>-343444.5743002485</v>
       </c>
       <c r="G6" t="n">
-        <v>-498380.1948916893</v>
+        <v>-498380.1948916894</v>
       </c>
       <c r="H6" t="n">
-        <v>-417273.3726465519</v>
+        <v>-417273.372646552</v>
       </c>
       <c r="I6" t="n">
         <v>-417273.372646552</v>
       </c>
       <c r="J6" t="n">
-        <v>-537560.3017931218</v>
+        <v>-537560.3017931221</v>
       </c>
       <c r="K6" t="n">
-        <v>-427401.7108745468</v>
+        <v>-427401.7108745467</v>
       </c>
       <c r="L6" t="n">
-        <v>-508508.5331196842</v>
+        <v>-508508.5331196841</v>
       </c>
       <c r="M6" t="n">
-        <v>-514460.4675244032</v>
+        <v>-514460.4675244034</v>
       </c>
       <c r="N6" t="n">
-        <v>-417237.1318207247</v>
+        <v>-417237.1318207248</v>
       </c>
       <c r="O6" t="n">
-        <v>-449762.6601854267</v>
+        <v>-449762.6601854269</v>
       </c>
       <c r="P6" t="n">
-        <v>-417356.7735691022</v>
+        <v>-417356.7735691026</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>122.1785755065324</v>
       </c>
       <c r="F2" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="G2" t="n">
         <v>223.5621033129541</v>
@@ -26707,13 +26707,13 @@
         <v>223.5621033129541</v>
       </c>
       <c r="J2" t="n">
+        <v>142.0669156854364</v>
+      </c>
+      <c r="K2" t="n">
+        <v>142.0669156854364</v>
+      </c>
+      <c r="L2" t="n">
         <v>142.0669156854363</v>
-      </c>
-      <c r="K2" t="n">
-        <v>142.0669156854363</v>
-      </c>
-      <c r="L2" t="n">
-        <v>142.0669156854364</v>
       </c>
       <c r="M2" t="n">
         <v>223.178990718874</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>131.0716122618813</v>
+        <v>131.0716122618814</v>
       </c>
       <c r="F3" t="n">
-        <v>131.0716122618813</v>
+        <v>131.0716122618814</v>
       </c>
       <c r="G3" t="n">
-        <v>131.0716122618813</v>
+        <v>131.0716122618814</v>
       </c>
       <c r="H3" t="n">
-        <v>131.0716122618813</v>
+        <v>131.0716122618814</v>
       </c>
       <c r="I3" t="n">
-        <v>131.0716122618813</v>
+        <v>131.0716122618814</v>
       </c>
       <c r="J3" t="n">
-        <v>131.0716122618813</v>
+        <v>131.0716122618814</v>
       </c>
       <c r="K3" t="n">
-        <v>131.0716122618813</v>
+        <v>131.0716122618814</v>
       </c>
       <c r="L3" t="n">
-        <v>131.0716122618815</v>
+        <v>131.0716122618814</v>
       </c>
       <c r="M3" t="n">
-        <v>131.0716122618815</v>
+        <v>131.0716122618814</v>
       </c>
       <c r="N3" t="n">
-        <v>131.0716122618815</v>
+        <v>131.0716122618814</v>
       </c>
       <c r="O3" t="n">
-        <v>131.0716122618815</v>
+        <v>131.0716122618814</v>
       </c>
       <c r="P3" t="n">
-        <v>131.071612261883</v>
+        <v>131.0716122618814</v>
       </c>
     </row>
     <row r="4">
@@ -26811,13 +26811,13 @@
         <v>425.1947883666029</v>
       </c>
       <c r="J4" t="n">
-        <v>721.826397023264</v>
+        <v>721.8263970232643</v>
       </c>
       <c r="K4" t="n">
-        <v>721.8263970232642</v>
+        <v>721.8263970232639</v>
       </c>
       <c r="L4" t="n">
-        <v>721.8263970232642</v>
+        <v>721.8263970232639</v>
       </c>
       <c r="M4" t="n">
         <v>426.3794284225094</v>
@@ -26826,10 +26826,10 @@
         <v>426.3794284225094</v>
       </c>
       <c r="O4" t="n">
-        <v>434.1730908768557</v>
+        <v>434.1730908768558</v>
       </c>
       <c r="P4" t="n">
-        <v>434.1730908768557</v>
+        <v>434.1730908768556</v>
       </c>
     </row>
   </sheetData>
@@ -26920,31 +26920,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>101.3835278064218</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>40.68338787901462</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>101.3835278064217</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>40.68338787901459</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>101.3835278064218</v>
-      </c>
       <c r="M2" t="n">
-        <v>81.11207503343761</v>
+        <v>81.11207503343763</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>38.16291744127898</v>
+        <v>38.16291744127906</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>131.0716122618813</v>
+        <v>131.0716122618814</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>296.6316086566611</v>
+        <v>296.6316086566615</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>129.7478197658481</v>
+        <v>129.7478197658484</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>7.793662454346247</v>
+        <v>7.793662454346418</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>101.3835278064217</v>
+        <v>101.3835278064218</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>40.68338787901459</v>
+        <v>40.68338787901462</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28166,10 +28166,10 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
         <v>122.1785755065324</v>
-      </c>
-      <c r="C12" t="n">
-        <v>87.4550164710339</v>
       </c>
       <c r="D12" t="n">
         <v>122.1785755065324</v>
@@ -28226,16 +28226,16 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>87.45501647103393</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
         <v>122.1785755065324</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="C14" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="D14" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="E14" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="F14" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="G14" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="H14" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="I14" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>108.7516180225036</v>
       </c>
       <c r="S14" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="T14" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="U14" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="V14" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="W14" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="X14" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="Y14" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
     </row>
     <row r="15">
@@ -28403,22 +28403,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="C15" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="D15" t="n">
-        <v>122.1785755065324</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>87.45501647103389</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="F15" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="G15" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="H15" t="n">
         <v>107.7396882560888</v>
@@ -28454,7 +28454,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>87.45501647103399</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -28463,13 +28463,13 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>122.1785755065324</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="C16" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="D16" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="E16" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="F16" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="G16" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="H16" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="I16" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="J16" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="K16" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="L16" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="M16" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="N16" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="O16" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="P16" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="Q16" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="R16" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="S16" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="T16" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="U16" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="V16" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="W16" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="X16" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="Y16" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
     </row>
     <row r="17">
@@ -28640,13 +28640,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -28655,7 +28655,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>135.7412825862149</v>
       </c>
       <c r="H18" t="n">
         <v>107.7396882560888</v>
@@ -28700,16 +28700,16 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>171.6044279528642</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>223.5621033129541</v>
       </c>
       <c r="X18" t="n">
-        <v>136.9513764703469</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -28767,7 +28767,7 @@
         <v>59.96888642430409</v>
       </c>
       <c r="R19" t="n">
-        <v>162.7636035017944</v>
+        <v>162.7636035017943</v>
       </c>
       <c r="S19" t="n">
         <v>218.2383203924713</v>
@@ -28877,13 +28877,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -28898,7 +28898,7 @@
         <v>107.7396882560888</v>
       </c>
       <c r="I21" t="n">
-        <v>76.79682501022856</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28931,22 +28931,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>197.246165760451</v>
       </c>
       <c r="U21" t="n">
-        <v>223.5621033129541</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>156.2030651467266</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y21" t="n">
-        <v>149.7385344260686</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="22">
@@ -29004,16 +29004,16 @@
         <v>59.96888642430409</v>
       </c>
       <c r="R22" t="n">
-        <v>162.7636035017944</v>
+        <v>162.7636035017943</v>
       </c>
       <c r="S22" t="n">
-        <v>218.2383203924713</v>
+        <v>20.64783432787974</v>
       </c>
       <c r="T22" t="n">
         <v>223.5621033129541</v>
       </c>
       <c r="U22" t="n">
-        <v>25.97161724836258</v>
+        <v>223.5621033129541</v>
       </c>
       <c r="V22" t="n">
         <v>223.5621033129541</v>
@@ -29114,7 +29114,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -29123,7 +29123,7 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E24" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>143.5062320835493</v>
@@ -29132,7 +29132,7 @@
         <v>135.7412825862149</v>
       </c>
       <c r="H24" t="n">
-        <v>107.7396882560888</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>76.79682501022856</v>
@@ -29168,13 +29168,13 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>113.9719905986081</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>15.57099424569034</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>223.5621033129541</v>
@@ -29199,7 +29199,7 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D25" t="n">
-        <v>149.0055665145194</v>
+        <v>114.1786839517221</v>
       </c>
       <c r="E25" t="n">
         <v>146.9746241731992</v>
@@ -29250,7 +29250,7 @@
         <v>223.5621033129541</v>
       </c>
       <c r="U25" t="n">
-        <v>188.735220750157</v>
+        <v>223.5621033129541</v>
       </c>
       <c r="V25" t="n">
         <v>223.5621033129541</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="C26" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="D26" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="E26" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="F26" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="G26" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="H26" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="I26" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="J26" t="n">
-        <v>142.0669156854358</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="K26" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="L26" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="M26" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="N26" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="O26" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="P26" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="Q26" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="R26" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="S26" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="T26" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="U26" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="V26" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="W26" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="X26" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="Y26" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
     </row>
     <row r="27">
@@ -29354,19 +29354,19 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>125.2348247559123</v>
       </c>
       <c r="D27" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>135.7412825862149</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>107.7396882560888</v>
@@ -29405,7 +29405,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>131.5604578551338</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="C28" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="D28" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="E28" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="F28" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="G28" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="H28" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="I28" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="J28" t="n">
-        <v>72.12828872186662</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="M28" t="n">
-        <v>142.0669156854363</v>
+        <v>84.48647660031634</v>
       </c>
       <c r="N28" t="n">
-        <v>12.35818787845035</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>142.0669156854363</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="Q28" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="R28" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="S28" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="T28" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="U28" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="V28" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="W28" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="X28" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="Y28" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="C29" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="D29" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="E29" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="F29" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="G29" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="H29" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="I29" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="J29" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="K29" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="L29" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854353</v>
       </c>
       <c r="M29" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="N29" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="O29" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="P29" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="Q29" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="R29" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="S29" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="T29" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="U29" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="V29" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="W29" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="X29" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="Y29" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
     </row>
     <row r="30">
@@ -29588,19 +29588,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>54.36972095422362</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>142.0669156854363</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>135.7412825862149</v>
@@ -29636,7 +29636,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>77.19073690091015</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -29657,7 +29657,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>131.5604578551337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="C31" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="D31" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="E31" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="F31" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="G31" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="H31" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="I31" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="J31" t="n">
-        <v>72.12828872186662</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="L31" t="n">
-        <v>142.0669156854363</v>
+        <v>24.51759017601225</v>
       </c>
       <c r="M31" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="N31" t="n">
-        <v>94.45621713958325</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>142.0669156854363</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>59.96888642430409</v>
       </c>
       <c r="R31" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="S31" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="T31" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="U31" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="V31" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="W31" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="X31" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="Y31" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="C32" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="D32" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="E32" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="F32" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="G32" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="H32" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="I32" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="J32" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="K32" t="n">
-        <v>142.0669156854362</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="L32" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="M32" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="N32" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="O32" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="P32" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="Q32" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="R32" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="S32" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="T32" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="U32" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="V32" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="W32" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="X32" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="Y32" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
     </row>
     <row r="33">
@@ -29828,19 +29828,19 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>125.2348247559122</v>
+        <v>131.5604578551337</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>135.7412825862149</v>
       </c>
       <c r="H33" t="n">
         <v>107.7396882560888</v>
@@ -29891,10 +29891,10 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>142.0669156854364</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>142.0669156854364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="C34" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="D34" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="E34" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="F34" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="G34" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="H34" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="I34" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="J34" t="n">
-        <v>72.12828872186661</v>
+        <v>72.12828872186662</v>
       </c>
       <c r="K34" t="n">
-        <v>12.35818787844958</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="O34" t="n">
-        <v>142.0669156854364</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>142.0669156854364</v>
+        <v>94.45621713958246</v>
       </c>
       <c r="Q34" t="n">
-        <v>142.0669156854364</v>
+        <v>59.96888642430409</v>
       </c>
       <c r="R34" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="S34" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="T34" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="U34" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="V34" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="W34" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="X34" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="Y34" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
     </row>
     <row r="35">
@@ -30031,7 +30031,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>108.7516180225035</v>
+        <v>108.7516180225036</v>
       </c>
       <c r="S35" t="n">
         <v>193.8577381982423</v>
@@ -30062,7 +30062,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>30.86459501109661</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -30119,10 +30119,10 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>11.3567557108087</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>223.178990718874</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -30131,7 +30131,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30162,10 +30162,10 @@
         <v>159.5326287828165</v>
       </c>
       <c r="I37" t="n">
-        <v>146.6505977258904</v>
+        <v>146.6505977258905</v>
       </c>
       <c r="J37" t="n">
-        <v>72.12828872186661</v>
+        <v>72.12828872186662</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>59.96888642430407</v>
+        <v>59.96888642430409</v>
       </c>
       <c r="R37" t="n">
         <v>162.7636035017943</v>
@@ -30210,7 +30210,7 @@
         <v>223.178990718874</v>
       </c>
       <c r="Y37" t="n">
-        <v>23.07375077357722</v>
+        <v>23.07375077357733</v>
       </c>
     </row>
     <row r="38">
@@ -30268,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>108.7516180225035</v>
+        <v>108.7516180225036</v>
       </c>
       <c r="S38" t="n">
         <v>193.8577381982423</v>
@@ -30299,13 +30299,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>97.30425995041765</v>
+        <v>60.63422887718546</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E39" t="n">
         <v>156.0334337071738</v>
@@ -30320,7 +30320,7 @@
         <v>107.7396882560888</v>
       </c>
       <c r="I39" t="n">
-        <v>76.79682501022856</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30356,11 +30356,11 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
         <v>223.178990718874</v>
       </c>
-      <c r="V39" t="n">
-        <v>0</v>
-      </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
@@ -30368,7 +30368,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -30399,10 +30399,10 @@
         <v>159.5326287828165</v>
       </c>
       <c r="I40" t="n">
-        <v>146.6505977258904</v>
+        <v>146.6505977258905</v>
       </c>
       <c r="J40" t="n">
-        <v>72.12828872186661</v>
+        <v>72.12828872186662</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,13 +30423,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>59.96888642430407</v>
+        <v>59.96888642430409</v>
       </c>
       <c r="R40" t="n">
         <v>162.7636035017943</v>
       </c>
       <c r="S40" t="n">
-        <v>218.2383203924713</v>
+        <v>22.56339729828039</v>
       </c>
       <c r="T40" t="n">
         <v>223.178990718874</v>
@@ -30447,7 +30447,7 @@
         <v>223.178990718874</v>
       </c>
       <c r="Y40" t="n">
-        <v>23.07375077357722</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="41">
@@ -30493,10 +30493,10 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>30.85975436468414</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>4.058972281788556</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -30505,10 +30505,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>108.7516180225035</v>
+        <v>108.7516180225036</v>
       </c>
       <c r="S41" t="n">
-        <v>193.8577381982423</v>
+        <v>220.6585202811384</v>
       </c>
       <c r="T41" t="n">
         <v>220.6585202811384</v>
@@ -30539,16 +30539,16 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F42" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>135.7412825862149</v>
@@ -30584,10 +30584,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>77.19073690091015</v>
       </c>
       <c r="S42" t="n">
-        <v>163.724932038389</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -30596,7 +30596,7 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>171.6854424928851</v>
+        <v>220.6585202811384</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -30605,7 +30605,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>49.94707607835562</v>
       </c>
     </row>
     <row r="43">
@@ -30618,7 +30618,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D43" t="n">
         <v>149.0055665145194</v>
@@ -30636,10 +30636,10 @@
         <v>159.5326287828165</v>
       </c>
       <c r="I43" t="n">
-        <v>146.6505977258904</v>
+        <v>146.6505977258905</v>
       </c>
       <c r="J43" t="n">
-        <v>72.12828872186661</v>
+        <v>72.12828872186662</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30660,10 +30660,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>59.96888642430407</v>
+        <v>59.96888642430409</v>
       </c>
       <c r="R43" t="n">
-        <v>162.7636035017943</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>218.2383203924713</v>
@@ -30678,10 +30678,10 @@
         <v>220.6585202811384</v>
       </c>
       <c r="W43" t="n">
+        <v>200.3495528774197</v>
+      </c>
+      <c r="X43" t="n">
         <v>220.6585202811384</v>
-      </c>
-      <c r="X43" t="n">
-        <v>204.9225023068278</v>
       </c>
       <c r="Y43" t="n">
         <v>218.7486738677682</v>
@@ -30715,7 +30715,7 @@
         <v>220.6585202811384</v>
       </c>
       <c r="I44" t="n">
-        <v>184.9101839214858</v>
+        <v>215.7699382861699</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30730,7 +30730,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>30.85975436467686</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -30742,10 +30742,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>108.7516180225032</v>
+        <v>108.7516180225036</v>
       </c>
       <c r="S44" t="n">
-        <v>193.8577381982421</v>
+        <v>193.8577381982423</v>
       </c>
       <c r="T44" t="n">
         <v>220.6585202811384</v>
@@ -30776,25 +30776,25 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E45" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>48.5564590854475</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>107.7396882560888</v>
       </c>
       <c r="I45" t="n">
-        <v>76.79682501022845</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30827,19 +30827,19 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>91.61105750659875</v>
+        <v>197.246165760451</v>
       </c>
       <c r="U45" t="n">
-        <v>220.6585202811384</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>220.6585202811384</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -30873,10 +30873,10 @@
         <v>159.5326287828165</v>
       </c>
       <c r="I46" t="n">
-        <v>146.6505977258903</v>
+        <v>146.6505977258905</v>
       </c>
       <c r="J46" t="n">
-        <v>72.12828872186641</v>
+        <v>72.12828872186662</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30897,22 +30897,22 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>59.96888642430409</v>
       </c>
       <c r="R46" t="n">
-        <v>162.7636035017942</v>
+        <v>162.7636035017943</v>
       </c>
       <c r="S46" t="n">
-        <v>218.2383203924712</v>
+        <v>218.2383203924713</v>
       </c>
       <c r="T46" t="n">
         <v>220.6585202811384</v>
       </c>
       <c r="U46" t="n">
+        <v>37.58594937562532</v>
+      </c>
+      <c r="V46" t="n">
         <v>220.6585202811384</v>
-      </c>
-      <c r="V46" t="n">
-        <v>97.55483579992691</v>
       </c>
       <c r="W46" t="n">
         <v>220.6585202811384</v>
@@ -31750,46 +31750,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5269210543191206</v>
+        <v>0.5269210543191207</v>
       </c>
       <c r="H11" t="n">
-        <v>5.396330247545695</v>
+        <v>5.396330247545696</v>
       </c>
       <c r="I11" t="n">
         <v>20.31412394663792</v>
       </c>
       <c r="J11" t="n">
-        <v>44.7217658340175</v>
+        <v>44.72176583401751</v>
       </c>
       <c r="K11" t="n">
-        <v>67.02633406334589</v>
+        <v>67.0263340633459</v>
       </c>
       <c r="L11" t="n">
-        <v>83.15209427946469</v>
+        <v>83.15209427946471</v>
       </c>
       <c r="M11" t="n">
-        <v>92.52272657921235</v>
+        <v>92.52272657921236</v>
       </c>
       <c r="N11" t="n">
-        <v>94.01984102479656</v>
+        <v>94.01984102479658</v>
       </c>
       <c r="O11" t="n">
-        <v>88.78026979091079</v>
+        <v>88.78026979091082</v>
       </c>
       <c r="P11" t="n">
-        <v>75.7719062624075</v>
+        <v>75.77190626240751</v>
       </c>
       <c r="Q11" t="n">
-        <v>56.90154600460397</v>
+        <v>56.90154600460399</v>
       </c>
       <c r="R11" t="n">
-        <v>33.09920467837349</v>
+        <v>33.0992046783735</v>
       </c>
       <c r="S11" t="n">
         <v>12.00721352529697</v>
       </c>
       <c r="T11" t="n">
-        <v>2.306596915281951</v>
+        <v>2.306596915281952</v>
       </c>
       <c r="U11" t="n">
         <v>0.04215368434552964</v>
@@ -31832,31 +31832,31 @@
         <v>0.2819276188274429</v>
       </c>
       <c r="H12" t="n">
-        <v>2.722827266043988</v>
+        <v>2.722827266043989</v>
       </c>
       <c r="I12" t="n">
-        <v>9.706718455243101</v>
+        <v>9.706718455243102</v>
       </c>
       <c r="J12" t="n">
         <v>26.63597735597346</v>
       </c>
       <c r="K12" t="n">
-        <v>45.52512781741213</v>
+        <v>45.52512781741214</v>
       </c>
       <c r="L12" t="n">
-        <v>61.21415250023053</v>
+        <v>61.21415250023055</v>
       </c>
       <c r="M12" t="n">
-        <v>71.43402868272533</v>
+        <v>71.43402868272534</v>
       </c>
       <c r="N12" t="n">
-        <v>73.32467486337077</v>
+        <v>73.32467486337079</v>
       </c>
       <c r="O12" t="n">
-        <v>67.07775236198374</v>
+        <v>67.07775236198376</v>
       </c>
       <c r="P12" t="n">
-        <v>53.8358099496018</v>
+        <v>53.83580994960181</v>
       </c>
       <c r="Q12" t="n">
         <v>35.9878132383943</v>
@@ -31865,7 +31865,7 @@
         <v>17.50424286018107</v>
       </c>
       <c r="S12" t="n">
-        <v>5.23668186725535</v>
+        <v>5.236681867255351</v>
       </c>
       <c r="T12" t="n">
         <v>1.136366147817631</v>
@@ -31908,37 +31908,37 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2363586450624089</v>
+        <v>0.236358645062409</v>
       </c>
       <c r="H13" t="n">
-        <v>2.101443226100328</v>
+        <v>2.101443226100329</v>
       </c>
       <c r="I13" t="n">
-        <v>7.107949071513173</v>
+        <v>7.107949071513175</v>
       </c>
       <c r="J13" t="n">
-        <v>16.71055620591231</v>
+        <v>16.71055620591232</v>
       </c>
       <c r="K13" t="n">
         <v>27.46057712634169</v>
       </c>
       <c r="L13" t="n">
-        <v>35.14008437591488</v>
+        <v>35.14008437591489</v>
       </c>
       <c r="M13" t="n">
-        <v>37.05029197101015</v>
+        <v>37.05029197101016</v>
       </c>
       <c r="N13" t="n">
-        <v>36.16931883941393</v>
+        <v>36.16931883941394</v>
       </c>
       <c r="O13" t="n">
-        <v>33.40822012209396</v>
+        <v>33.40822012209397</v>
       </c>
       <c r="P13" t="n">
-        <v>28.58650376282079</v>
+        <v>28.5865037628208</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.79181345154408</v>
+        <v>19.79181345154409</v>
       </c>
       <c r="R13" t="n">
         <v>10.62754416798795</v>
@@ -31987,46 +31987,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5269210543191206</v>
+        <v>0.5269210543191207</v>
       </c>
       <c r="H14" t="n">
-        <v>5.396330247545695</v>
+        <v>5.396330247545696</v>
       </c>
       <c r="I14" t="n">
         <v>20.31412394663792</v>
       </c>
       <c r="J14" t="n">
-        <v>44.7217658340175</v>
+        <v>44.72176583401751</v>
       </c>
       <c r="K14" t="n">
-        <v>67.02633406334589</v>
+        <v>67.0263340633459</v>
       </c>
       <c r="L14" t="n">
-        <v>83.15209427946469</v>
+        <v>83.15209427946471</v>
       </c>
       <c r="M14" t="n">
-        <v>92.52272657921235</v>
+        <v>92.52272657921236</v>
       </c>
       <c r="N14" t="n">
-        <v>94.01984102479656</v>
+        <v>94.01984102479658</v>
       </c>
       <c r="O14" t="n">
-        <v>88.78026979091079</v>
+        <v>88.78026979091082</v>
       </c>
       <c r="P14" t="n">
-        <v>75.7719062624075</v>
+        <v>75.77190626240751</v>
       </c>
       <c r="Q14" t="n">
-        <v>56.90154600460397</v>
+        <v>56.90154600460399</v>
       </c>
       <c r="R14" t="n">
-        <v>33.09920467837349</v>
+        <v>33.0992046783735</v>
       </c>
       <c r="S14" t="n">
         <v>12.00721352529697</v>
       </c>
       <c r="T14" t="n">
-        <v>2.306596915281951</v>
+        <v>2.306596915281952</v>
       </c>
       <c r="U14" t="n">
         <v>0.04215368434552964</v>
@@ -32069,31 +32069,31 @@
         <v>0.2819276188274429</v>
       </c>
       <c r="H15" t="n">
-        <v>2.722827266043988</v>
+        <v>2.722827266043989</v>
       </c>
       <c r="I15" t="n">
-        <v>9.706718455243101</v>
+        <v>9.706718455243102</v>
       </c>
       <c r="J15" t="n">
         <v>26.63597735597346</v>
       </c>
       <c r="K15" t="n">
-        <v>45.52512781741213</v>
+        <v>45.52512781741214</v>
       </c>
       <c r="L15" t="n">
-        <v>61.21415250023053</v>
+        <v>61.21415250023055</v>
       </c>
       <c r="M15" t="n">
-        <v>71.43402868272533</v>
+        <v>71.43402868272534</v>
       </c>
       <c r="N15" t="n">
-        <v>73.32467486337077</v>
+        <v>73.32467486337079</v>
       </c>
       <c r="O15" t="n">
-        <v>67.07775236198374</v>
+        <v>67.07775236198376</v>
       </c>
       <c r="P15" t="n">
-        <v>53.8358099496018</v>
+        <v>53.83580994960181</v>
       </c>
       <c r="Q15" t="n">
         <v>35.9878132383943</v>
@@ -32102,7 +32102,7 @@
         <v>17.50424286018107</v>
       </c>
       <c r="S15" t="n">
-        <v>5.23668186725535</v>
+        <v>5.236681867255351</v>
       </c>
       <c r="T15" t="n">
         <v>1.136366147817631</v>
@@ -32145,37 +32145,37 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2363586450624089</v>
+        <v>0.236358645062409</v>
       </c>
       <c r="H16" t="n">
-        <v>2.101443226100328</v>
+        <v>2.101443226100329</v>
       </c>
       <c r="I16" t="n">
-        <v>7.107949071513173</v>
+        <v>7.107949071513175</v>
       </c>
       <c r="J16" t="n">
-        <v>16.71055620591231</v>
+        <v>16.71055620591232</v>
       </c>
       <c r="K16" t="n">
         <v>27.46057712634169</v>
       </c>
       <c r="L16" t="n">
-        <v>35.14008437591488</v>
+        <v>35.14008437591489</v>
       </c>
       <c r="M16" t="n">
-        <v>37.05029197101015</v>
+        <v>37.05029197101016</v>
       </c>
       <c r="N16" t="n">
-        <v>36.16931883941393</v>
+        <v>36.16931883941394</v>
       </c>
       <c r="O16" t="n">
-        <v>33.40822012209396</v>
+        <v>33.40822012209397</v>
       </c>
       <c r="P16" t="n">
-        <v>28.58650376282079</v>
+        <v>28.5865037628208</v>
       </c>
       <c r="Q16" t="n">
-        <v>19.79181345154408</v>
+        <v>19.79181345154409</v>
       </c>
       <c r="R16" t="n">
         <v>10.62754416798795</v>
@@ -32224,46 +32224,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5269210543191206</v>
+        <v>0.5269210543191207</v>
       </c>
       <c r="H17" t="n">
-        <v>5.396330247545695</v>
+        <v>5.396330247545696</v>
       </c>
       <c r="I17" t="n">
         <v>20.31412394663792</v>
       </c>
       <c r="J17" t="n">
-        <v>44.7217658340175</v>
+        <v>44.72176583401751</v>
       </c>
       <c r="K17" t="n">
-        <v>67.02633406334589</v>
+        <v>67.0263340633459</v>
       </c>
       <c r="L17" t="n">
-        <v>83.15209427946469</v>
+        <v>83.15209427946471</v>
       </c>
       <c r="M17" t="n">
-        <v>92.52272657921235</v>
+        <v>92.52272657921236</v>
       </c>
       <c r="N17" t="n">
-        <v>94.01984102479656</v>
+        <v>94.01984102479658</v>
       </c>
       <c r="O17" t="n">
-        <v>88.78026979091079</v>
+        <v>88.78026979091082</v>
       </c>
       <c r="P17" t="n">
-        <v>75.7719062624075</v>
+        <v>75.77190626240751</v>
       </c>
       <c r="Q17" t="n">
-        <v>56.90154600460397</v>
+        <v>56.90154600460399</v>
       </c>
       <c r="R17" t="n">
-        <v>33.09920467837349</v>
+        <v>33.0992046783735</v>
       </c>
       <c r="S17" t="n">
         <v>12.00721352529697</v>
       </c>
       <c r="T17" t="n">
-        <v>2.306596915281951</v>
+        <v>2.306596915281952</v>
       </c>
       <c r="U17" t="n">
         <v>0.04215368434552964</v>
@@ -32306,31 +32306,31 @@
         <v>0.2819276188274429</v>
       </c>
       <c r="H18" t="n">
-        <v>2.722827266043988</v>
+        <v>2.722827266043989</v>
       </c>
       <c r="I18" t="n">
-        <v>9.706718455243101</v>
+        <v>9.706718455243102</v>
       </c>
       <c r="J18" t="n">
         <v>26.63597735597346</v>
       </c>
       <c r="K18" t="n">
-        <v>45.52512781741213</v>
+        <v>45.52512781741214</v>
       </c>
       <c r="L18" t="n">
-        <v>61.21415250023053</v>
+        <v>61.21415250023055</v>
       </c>
       <c r="M18" t="n">
-        <v>71.43402868272533</v>
+        <v>71.43402868272534</v>
       </c>
       <c r="N18" t="n">
-        <v>73.32467486337077</v>
+        <v>73.32467486337079</v>
       </c>
       <c r="O18" t="n">
-        <v>67.07775236198374</v>
+        <v>67.07775236198376</v>
       </c>
       <c r="P18" t="n">
-        <v>53.8358099496018</v>
+        <v>53.83580994960181</v>
       </c>
       <c r="Q18" t="n">
         <v>35.9878132383943</v>
@@ -32339,7 +32339,7 @@
         <v>17.50424286018107</v>
       </c>
       <c r="S18" t="n">
-        <v>5.23668186725535</v>
+        <v>5.236681867255351</v>
       </c>
       <c r="T18" t="n">
         <v>1.136366147817631</v>
@@ -32382,37 +32382,37 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2363586450624089</v>
+        <v>0.236358645062409</v>
       </c>
       <c r="H19" t="n">
-        <v>2.101443226100328</v>
+        <v>2.101443226100329</v>
       </c>
       <c r="I19" t="n">
-        <v>7.107949071513173</v>
+        <v>7.107949071513175</v>
       </c>
       <c r="J19" t="n">
-        <v>16.71055620591231</v>
+        <v>16.71055620591232</v>
       </c>
       <c r="K19" t="n">
         <v>27.46057712634169</v>
       </c>
       <c r="L19" t="n">
-        <v>35.14008437591488</v>
+        <v>35.14008437591489</v>
       </c>
       <c r="M19" t="n">
-        <v>37.05029197101015</v>
+        <v>37.05029197101016</v>
       </c>
       <c r="N19" t="n">
-        <v>36.16931883941393</v>
+        <v>36.16931883941394</v>
       </c>
       <c r="O19" t="n">
-        <v>33.40822012209396</v>
+        <v>33.40822012209397</v>
       </c>
       <c r="P19" t="n">
-        <v>28.58650376282079</v>
+        <v>28.5865037628208</v>
       </c>
       <c r="Q19" t="n">
-        <v>19.79181345154408</v>
+        <v>19.79181345154409</v>
       </c>
       <c r="R19" t="n">
         <v>10.62754416798795</v>
@@ -32461,46 +32461,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5269210543191206</v>
+        <v>0.5269210543191207</v>
       </c>
       <c r="H20" t="n">
-        <v>5.396330247545695</v>
+        <v>5.396330247545696</v>
       </c>
       <c r="I20" t="n">
         <v>20.31412394663792</v>
       </c>
       <c r="J20" t="n">
-        <v>44.7217658340175</v>
+        <v>44.72176583401751</v>
       </c>
       <c r="K20" t="n">
-        <v>67.02633406334589</v>
+        <v>67.0263340633459</v>
       </c>
       <c r="L20" t="n">
-        <v>83.15209427946469</v>
+        <v>83.15209427946471</v>
       </c>
       <c r="M20" t="n">
-        <v>92.52272657921235</v>
+        <v>92.52272657921236</v>
       </c>
       <c r="N20" t="n">
-        <v>94.01984102479656</v>
+        <v>94.01984102479658</v>
       </c>
       <c r="O20" t="n">
-        <v>88.78026979091079</v>
+        <v>88.78026979091082</v>
       </c>
       <c r="P20" t="n">
-        <v>75.7719062624075</v>
+        <v>75.77190626240751</v>
       </c>
       <c r="Q20" t="n">
-        <v>56.90154600460397</v>
+        <v>56.90154600460399</v>
       </c>
       <c r="R20" t="n">
-        <v>33.09920467837349</v>
+        <v>33.0992046783735</v>
       </c>
       <c r="S20" t="n">
         <v>12.00721352529697</v>
       </c>
       <c r="T20" t="n">
-        <v>2.306596915281951</v>
+        <v>2.306596915281952</v>
       </c>
       <c r="U20" t="n">
         <v>0.04215368434552964</v>
@@ -32543,31 +32543,31 @@
         <v>0.2819276188274429</v>
       </c>
       <c r="H21" t="n">
-        <v>2.722827266043988</v>
+        <v>2.722827266043989</v>
       </c>
       <c r="I21" t="n">
-        <v>9.706718455243101</v>
+        <v>9.706718455243102</v>
       </c>
       <c r="J21" t="n">
         <v>26.63597735597346</v>
       </c>
       <c r="K21" t="n">
-        <v>45.52512781741213</v>
+        <v>45.52512781741214</v>
       </c>
       <c r="L21" t="n">
-        <v>61.21415250023053</v>
+        <v>61.21415250023055</v>
       </c>
       <c r="M21" t="n">
-        <v>71.43402868272533</v>
+        <v>71.43402868272534</v>
       </c>
       <c r="N21" t="n">
-        <v>73.32467486337077</v>
+        <v>73.32467486337079</v>
       </c>
       <c r="O21" t="n">
-        <v>67.07775236198374</v>
+        <v>67.07775236198376</v>
       </c>
       <c r="P21" t="n">
-        <v>53.8358099496018</v>
+        <v>53.83580994960181</v>
       </c>
       <c r="Q21" t="n">
         <v>35.9878132383943</v>
@@ -32576,7 +32576,7 @@
         <v>17.50424286018107</v>
       </c>
       <c r="S21" t="n">
-        <v>5.23668186725535</v>
+        <v>5.236681867255351</v>
       </c>
       <c r="T21" t="n">
         <v>1.136366147817631</v>
@@ -32619,37 +32619,37 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2363586450624089</v>
+        <v>0.236358645062409</v>
       </c>
       <c r="H22" t="n">
-        <v>2.101443226100328</v>
+        <v>2.101443226100329</v>
       </c>
       <c r="I22" t="n">
-        <v>7.107949071513173</v>
+        <v>7.107949071513175</v>
       </c>
       <c r="J22" t="n">
-        <v>16.71055620591231</v>
+        <v>16.71055620591232</v>
       </c>
       <c r="K22" t="n">
         <v>27.46057712634169</v>
       </c>
       <c r="L22" t="n">
-        <v>35.14008437591488</v>
+        <v>35.14008437591489</v>
       </c>
       <c r="M22" t="n">
-        <v>37.05029197101015</v>
+        <v>37.05029197101016</v>
       </c>
       <c r="N22" t="n">
-        <v>36.16931883941393</v>
+        <v>36.16931883941394</v>
       </c>
       <c r="O22" t="n">
-        <v>33.40822012209396</v>
+        <v>33.40822012209397</v>
       </c>
       <c r="P22" t="n">
-        <v>28.58650376282079</v>
+        <v>28.5865037628208</v>
       </c>
       <c r="Q22" t="n">
-        <v>19.79181345154408</v>
+        <v>19.79181345154409</v>
       </c>
       <c r="R22" t="n">
         <v>10.62754416798795</v>
@@ -32698,46 +32698,46 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5269210543191206</v>
+        <v>0.5269210543191207</v>
       </c>
       <c r="H23" t="n">
-        <v>5.396330247545695</v>
+        <v>5.396330247545696</v>
       </c>
       <c r="I23" t="n">
         <v>20.31412394663792</v>
       </c>
       <c r="J23" t="n">
-        <v>44.7217658340175</v>
+        <v>44.72176583401751</v>
       </c>
       <c r="K23" t="n">
-        <v>67.02633406334589</v>
+        <v>67.0263340633459</v>
       </c>
       <c r="L23" t="n">
-        <v>83.15209427946469</v>
+        <v>83.15209427946471</v>
       </c>
       <c r="M23" t="n">
-        <v>92.52272657921235</v>
+        <v>92.52272657921236</v>
       </c>
       <c r="N23" t="n">
-        <v>94.01984102479656</v>
+        <v>94.01984102479658</v>
       </c>
       <c r="O23" t="n">
-        <v>88.78026979091079</v>
+        <v>88.78026979091082</v>
       </c>
       <c r="P23" t="n">
-        <v>75.7719062624075</v>
+        <v>75.77190626240751</v>
       </c>
       <c r="Q23" t="n">
-        <v>56.90154600460397</v>
+        <v>56.90154600460399</v>
       </c>
       <c r="R23" t="n">
-        <v>33.09920467837349</v>
+        <v>33.0992046783735</v>
       </c>
       <c r="S23" t="n">
         <v>12.00721352529697</v>
       </c>
       <c r="T23" t="n">
-        <v>2.306596915281951</v>
+        <v>2.306596915281952</v>
       </c>
       <c r="U23" t="n">
         <v>0.04215368434552964</v>
@@ -32780,31 +32780,31 @@
         <v>0.2819276188274429</v>
       </c>
       <c r="H24" t="n">
-        <v>2.722827266043988</v>
+        <v>2.722827266043989</v>
       </c>
       <c r="I24" t="n">
-        <v>9.706718455243101</v>
+        <v>9.706718455243102</v>
       </c>
       <c r="J24" t="n">
         <v>26.63597735597346</v>
       </c>
       <c r="K24" t="n">
-        <v>45.52512781741213</v>
+        <v>45.52512781741214</v>
       </c>
       <c r="L24" t="n">
-        <v>61.21415250023053</v>
+        <v>61.21415250023055</v>
       </c>
       <c r="M24" t="n">
-        <v>71.43402868272533</v>
+        <v>71.43402868272534</v>
       </c>
       <c r="N24" t="n">
-        <v>73.32467486337077</v>
+        <v>73.32467486337079</v>
       </c>
       <c r="O24" t="n">
-        <v>67.07775236198374</v>
+        <v>67.07775236198376</v>
       </c>
       <c r="P24" t="n">
-        <v>53.8358099496018</v>
+        <v>53.83580994960181</v>
       </c>
       <c r="Q24" t="n">
         <v>35.9878132383943</v>
@@ -32813,7 +32813,7 @@
         <v>17.50424286018107</v>
       </c>
       <c r="S24" t="n">
-        <v>5.23668186725535</v>
+        <v>5.236681867255351</v>
       </c>
       <c r="T24" t="n">
         <v>1.136366147817631</v>
@@ -32856,37 +32856,37 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2363586450624089</v>
+        <v>0.236358645062409</v>
       </c>
       <c r="H25" t="n">
-        <v>2.101443226100328</v>
+        <v>2.101443226100329</v>
       </c>
       <c r="I25" t="n">
-        <v>7.107949071513173</v>
+        <v>7.107949071513175</v>
       </c>
       <c r="J25" t="n">
-        <v>16.71055620591231</v>
+        <v>16.71055620591232</v>
       </c>
       <c r="K25" t="n">
         <v>27.46057712634169</v>
       </c>
       <c r="L25" t="n">
-        <v>35.14008437591488</v>
+        <v>35.14008437591489</v>
       </c>
       <c r="M25" t="n">
-        <v>37.05029197101015</v>
+        <v>37.05029197101016</v>
       </c>
       <c r="N25" t="n">
-        <v>36.16931883941393</v>
+        <v>36.16931883941394</v>
       </c>
       <c r="O25" t="n">
-        <v>33.40822012209396</v>
+        <v>33.40822012209397</v>
       </c>
       <c r="P25" t="n">
-        <v>28.58650376282079</v>
+        <v>28.5865037628208</v>
       </c>
       <c r="Q25" t="n">
-        <v>19.79181345154408</v>
+        <v>19.79181345154409</v>
       </c>
       <c r="R25" t="n">
         <v>10.62754416798795</v>
@@ -32935,46 +32935,46 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5269210543191206</v>
+        <v>0.5269210543191207</v>
       </c>
       <c r="H26" t="n">
-        <v>5.396330247545695</v>
+        <v>5.396330247545696</v>
       </c>
       <c r="I26" t="n">
         <v>20.31412394663792</v>
       </c>
       <c r="J26" t="n">
-        <v>44.7217658340175</v>
+        <v>44.72176583401751</v>
       </c>
       <c r="K26" t="n">
-        <v>67.02633406334589</v>
+        <v>67.0263340633459</v>
       </c>
       <c r="L26" t="n">
-        <v>83.15209427946469</v>
+        <v>83.15209427946471</v>
       </c>
       <c r="M26" t="n">
-        <v>92.52272657921235</v>
+        <v>92.52272657921236</v>
       </c>
       <c r="N26" t="n">
-        <v>94.01984102479656</v>
+        <v>94.01984102479658</v>
       </c>
       <c r="O26" t="n">
-        <v>88.78026979091079</v>
+        <v>88.78026979091082</v>
       </c>
       <c r="P26" t="n">
-        <v>75.7719062624075</v>
+        <v>75.77190626240751</v>
       </c>
       <c r="Q26" t="n">
-        <v>56.90154600460397</v>
+        <v>56.90154600460399</v>
       </c>
       <c r="R26" t="n">
-        <v>33.09920467837349</v>
+        <v>33.0992046783735</v>
       </c>
       <c r="S26" t="n">
         <v>12.00721352529697</v>
       </c>
       <c r="T26" t="n">
-        <v>2.306596915281951</v>
+        <v>2.306596915281952</v>
       </c>
       <c r="U26" t="n">
         <v>0.04215368434552964</v>
@@ -33017,31 +33017,31 @@
         <v>0.2819276188274429</v>
       </c>
       <c r="H27" t="n">
-        <v>2.722827266043988</v>
+        <v>2.722827266043989</v>
       </c>
       <c r="I27" t="n">
-        <v>9.706718455243101</v>
+        <v>9.706718455243102</v>
       </c>
       <c r="J27" t="n">
         <v>26.63597735597346</v>
       </c>
       <c r="K27" t="n">
-        <v>45.52512781741213</v>
+        <v>45.52512781741214</v>
       </c>
       <c r="L27" t="n">
-        <v>61.21415250023053</v>
+        <v>61.21415250023055</v>
       </c>
       <c r="M27" t="n">
-        <v>71.43402868272533</v>
+        <v>71.43402868272534</v>
       </c>
       <c r="N27" t="n">
-        <v>73.32467486337077</v>
+        <v>73.32467486337079</v>
       </c>
       <c r="O27" t="n">
-        <v>67.07775236198374</v>
+        <v>67.07775236198376</v>
       </c>
       <c r="P27" t="n">
-        <v>53.8358099496018</v>
+        <v>53.83580994960181</v>
       </c>
       <c r="Q27" t="n">
         <v>35.9878132383943</v>
@@ -33050,7 +33050,7 @@
         <v>17.50424286018107</v>
       </c>
       <c r="S27" t="n">
-        <v>5.23668186725535</v>
+        <v>5.236681867255351</v>
       </c>
       <c r="T27" t="n">
         <v>1.136366147817631</v>
@@ -33093,37 +33093,37 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2363586450624089</v>
+        <v>0.236358645062409</v>
       </c>
       <c r="H28" t="n">
-        <v>2.101443226100328</v>
+        <v>2.101443226100329</v>
       </c>
       <c r="I28" t="n">
-        <v>7.107949071513173</v>
+        <v>7.107949071513175</v>
       </c>
       <c r="J28" t="n">
-        <v>16.71055620591231</v>
+        <v>16.71055620591232</v>
       </c>
       <c r="K28" t="n">
         <v>27.46057712634169</v>
       </c>
       <c r="L28" t="n">
-        <v>35.14008437591488</v>
+        <v>35.14008437591489</v>
       </c>
       <c r="M28" t="n">
-        <v>37.05029197101015</v>
+        <v>37.05029197101016</v>
       </c>
       <c r="N28" t="n">
-        <v>36.16931883941393</v>
+        <v>36.16931883941394</v>
       </c>
       <c r="O28" t="n">
-        <v>33.40822012209396</v>
+        <v>33.40822012209397</v>
       </c>
       <c r="P28" t="n">
-        <v>28.58650376282079</v>
+        <v>28.5865037628208</v>
       </c>
       <c r="Q28" t="n">
-        <v>19.79181345154408</v>
+        <v>19.79181345154409</v>
       </c>
       <c r="R28" t="n">
         <v>10.62754416798795</v>
@@ -33172,46 +33172,46 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5269210543191206</v>
+        <v>0.5269210543191207</v>
       </c>
       <c r="H29" t="n">
-        <v>5.396330247545695</v>
+        <v>5.396330247545696</v>
       </c>
       <c r="I29" t="n">
         <v>20.31412394663792</v>
       </c>
       <c r="J29" t="n">
-        <v>44.7217658340175</v>
+        <v>44.72176583401751</v>
       </c>
       <c r="K29" t="n">
-        <v>67.02633406334589</v>
+        <v>67.0263340633459</v>
       </c>
       <c r="L29" t="n">
-        <v>83.15209427946469</v>
+        <v>83.15209427946471</v>
       </c>
       <c r="M29" t="n">
-        <v>92.52272657921235</v>
+        <v>92.52272657921236</v>
       </c>
       <c r="N29" t="n">
-        <v>94.01984102479656</v>
+        <v>94.01984102479658</v>
       </c>
       <c r="O29" t="n">
-        <v>88.78026979091079</v>
+        <v>88.78026979091082</v>
       </c>
       <c r="P29" t="n">
-        <v>75.7719062624075</v>
+        <v>75.77190626240751</v>
       </c>
       <c r="Q29" t="n">
-        <v>56.90154600460397</v>
+        <v>56.90154600460399</v>
       </c>
       <c r="R29" t="n">
-        <v>33.09920467837349</v>
+        <v>33.0992046783735</v>
       </c>
       <c r="S29" t="n">
         <v>12.00721352529697</v>
       </c>
       <c r="T29" t="n">
-        <v>2.306596915281951</v>
+        <v>2.306596915281952</v>
       </c>
       <c r="U29" t="n">
         <v>0.04215368434552964</v>
@@ -33254,31 +33254,31 @@
         <v>0.2819276188274429</v>
       </c>
       <c r="H30" t="n">
-        <v>2.722827266043988</v>
+        <v>2.722827266043989</v>
       </c>
       <c r="I30" t="n">
-        <v>9.706718455243101</v>
+        <v>9.706718455243102</v>
       </c>
       <c r="J30" t="n">
         <v>26.63597735597346</v>
       </c>
       <c r="K30" t="n">
-        <v>45.52512781741213</v>
+        <v>45.52512781741214</v>
       </c>
       <c r="L30" t="n">
-        <v>61.21415250023053</v>
+        <v>61.21415250023055</v>
       </c>
       <c r="M30" t="n">
-        <v>71.43402868272533</v>
+        <v>71.43402868272534</v>
       </c>
       <c r="N30" t="n">
-        <v>73.32467486337077</v>
+        <v>73.32467486337079</v>
       </c>
       <c r="O30" t="n">
-        <v>67.07775236198374</v>
+        <v>67.07775236198376</v>
       </c>
       <c r="P30" t="n">
-        <v>53.8358099496018</v>
+        <v>53.83580994960181</v>
       </c>
       <c r="Q30" t="n">
         <v>35.9878132383943</v>
@@ -33287,7 +33287,7 @@
         <v>17.50424286018107</v>
       </c>
       <c r="S30" t="n">
-        <v>5.23668186725535</v>
+        <v>5.236681867255351</v>
       </c>
       <c r="T30" t="n">
         <v>1.136366147817631</v>
@@ -33330,37 +33330,37 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2363586450624089</v>
+        <v>0.236358645062409</v>
       </c>
       <c r="H31" t="n">
-        <v>2.101443226100328</v>
+        <v>2.101443226100329</v>
       </c>
       <c r="I31" t="n">
-        <v>7.107949071513173</v>
+        <v>7.107949071513175</v>
       </c>
       <c r="J31" t="n">
-        <v>16.71055620591231</v>
+        <v>16.71055620591232</v>
       </c>
       <c r="K31" t="n">
         <v>27.46057712634169</v>
       </c>
       <c r="L31" t="n">
-        <v>35.14008437591488</v>
+        <v>35.14008437591489</v>
       </c>
       <c r="M31" t="n">
-        <v>37.05029197101015</v>
+        <v>37.05029197101016</v>
       </c>
       <c r="N31" t="n">
-        <v>36.16931883941393</v>
+        <v>36.16931883941394</v>
       </c>
       <c r="O31" t="n">
-        <v>33.40822012209396</v>
+        <v>33.40822012209397</v>
       </c>
       <c r="P31" t="n">
-        <v>28.58650376282079</v>
+        <v>28.5865037628208</v>
       </c>
       <c r="Q31" t="n">
-        <v>19.79181345154408</v>
+        <v>19.79181345154409</v>
       </c>
       <c r="R31" t="n">
         <v>10.62754416798795</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5269210543191211</v>
+        <v>0.5269210543191207</v>
       </c>
       <c r="H32" t="n">
-        <v>5.396330247545699</v>
+        <v>5.396330247545696</v>
       </c>
       <c r="I32" t="n">
-        <v>20.31412394663793</v>
+        <v>20.31412394663792</v>
       </c>
       <c r="J32" t="n">
-        <v>44.72176583401754</v>
+        <v>44.72176583401751</v>
       </c>
       <c r="K32" t="n">
-        <v>67.02633406334594</v>
+        <v>67.0263340633459</v>
       </c>
       <c r="L32" t="n">
-        <v>83.15209427946476</v>
+        <v>83.15209427946471</v>
       </c>
       <c r="M32" t="n">
-        <v>92.52272657921243</v>
+        <v>92.52272657921236</v>
       </c>
       <c r="N32" t="n">
-        <v>94.01984102479663</v>
+        <v>94.01984102479658</v>
       </c>
       <c r="O32" t="n">
-        <v>88.78026979091088</v>
+        <v>88.78026979091082</v>
       </c>
       <c r="P32" t="n">
-        <v>75.77190626240755</v>
+        <v>75.77190626240751</v>
       </c>
       <c r="Q32" t="n">
-        <v>56.90154600460402</v>
+        <v>56.90154600460399</v>
       </c>
       <c r="R32" t="n">
-        <v>33.09920467837352</v>
+        <v>33.0992046783735</v>
       </c>
       <c r="S32" t="n">
-        <v>12.00721352529698</v>
+        <v>12.00721352529697</v>
       </c>
       <c r="T32" t="n">
-        <v>2.306596915281954</v>
+        <v>2.306596915281952</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04215368434552967</v>
+        <v>0.04215368434552964</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2819276188274432</v>
+        <v>0.2819276188274429</v>
       </c>
       <c r="H33" t="n">
-        <v>2.722827266043991</v>
+        <v>2.722827266043989</v>
       </c>
       <c r="I33" t="n">
-        <v>9.706718455243109</v>
+        <v>9.706718455243102</v>
       </c>
       <c r="J33" t="n">
-        <v>26.63597735597348</v>
+        <v>26.63597735597346</v>
       </c>
       <c r="K33" t="n">
-        <v>45.52512781741217</v>
+        <v>45.52512781741214</v>
       </c>
       <c r="L33" t="n">
-        <v>61.21415250023059</v>
+        <v>61.21415250023055</v>
       </c>
       <c r="M33" t="n">
-        <v>71.43402868272538</v>
+        <v>71.43402868272534</v>
       </c>
       <c r="N33" t="n">
-        <v>73.32467486337084</v>
+        <v>73.32467486337079</v>
       </c>
       <c r="O33" t="n">
-        <v>67.0777523619838</v>
+        <v>67.07775236198376</v>
       </c>
       <c r="P33" t="n">
-        <v>53.83580994960185</v>
+        <v>53.83580994960181</v>
       </c>
       <c r="Q33" t="n">
-        <v>35.98781323839432</v>
+        <v>35.9878132383943</v>
       </c>
       <c r="R33" t="n">
-        <v>17.50424286018108</v>
+        <v>17.50424286018107</v>
       </c>
       <c r="S33" t="n">
-        <v>5.236681867255355</v>
+        <v>5.236681867255351</v>
       </c>
       <c r="T33" t="n">
-        <v>1.136366147817632</v>
+        <v>1.136366147817631</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01854786965970021</v>
+        <v>0.0185478696597002</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2363586450624091</v>
+        <v>0.236358645062409</v>
       </c>
       <c r="H34" t="n">
-        <v>2.10144322610033</v>
+        <v>2.101443226100329</v>
       </c>
       <c r="I34" t="n">
-        <v>7.107949071513179</v>
+        <v>7.107949071513175</v>
       </c>
       <c r="J34" t="n">
-        <v>16.71055620591233</v>
+        <v>16.71055620591232</v>
       </c>
       <c r="K34" t="n">
-        <v>27.46057712634171</v>
+        <v>27.46057712634169</v>
       </c>
       <c r="L34" t="n">
-        <v>35.14008437591491</v>
+        <v>35.14008437591489</v>
       </c>
       <c r="M34" t="n">
-        <v>37.05029197101019</v>
+        <v>37.05029197101016</v>
       </c>
       <c r="N34" t="n">
-        <v>36.16931883941396</v>
+        <v>36.16931883941394</v>
       </c>
       <c r="O34" t="n">
-        <v>33.40822012209399</v>
+        <v>33.40822012209397</v>
       </c>
       <c r="P34" t="n">
-        <v>28.58650376282082</v>
+        <v>28.5865037628208</v>
       </c>
       <c r="Q34" t="n">
-        <v>19.7918134515441</v>
+        <v>19.79181345154409</v>
       </c>
       <c r="R34" t="n">
-        <v>10.62754416798796</v>
+        <v>10.62754416798795</v>
       </c>
       <c r="S34" t="n">
-        <v>4.119086568951256</v>
+        <v>4.119086568951253</v>
       </c>
       <c r="T34" t="n">
-        <v>1.009896028903021</v>
+        <v>1.00989602890302</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01289228973067688</v>
+        <v>0.01289228973067687</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5269210543191211</v>
+        <v>0.5269210543191207</v>
       </c>
       <c r="H35" t="n">
-        <v>5.396330247545699</v>
+        <v>5.396330247545696</v>
       </c>
       <c r="I35" t="n">
-        <v>20.31412394663793</v>
+        <v>20.31412394663792</v>
       </c>
       <c r="J35" t="n">
-        <v>44.72176583401754</v>
+        <v>44.72176583401751</v>
       </c>
       <c r="K35" t="n">
-        <v>67.02633406334594</v>
+        <v>67.0263340633459</v>
       </c>
       <c r="L35" t="n">
-        <v>83.15209427946476</v>
+        <v>83.15209427946471</v>
       </c>
       <c r="M35" t="n">
-        <v>92.52272657921243</v>
+        <v>92.52272657921236</v>
       </c>
       <c r="N35" t="n">
-        <v>94.01984102479663</v>
+        <v>94.01984102479658</v>
       </c>
       <c r="O35" t="n">
-        <v>88.78026979091088</v>
+        <v>88.78026979091082</v>
       </c>
       <c r="P35" t="n">
-        <v>75.77190626240755</v>
+        <v>75.77190626240751</v>
       </c>
       <c r="Q35" t="n">
-        <v>56.90154600460402</v>
+        <v>56.90154600460399</v>
       </c>
       <c r="R35" t="n">
-        <v>33.09920467837352</v>
+        <v>33.0992046783735</v>
       </c>
       <c r="S35" t="n">
-        <v>12.00721352529698</v>
+        <v>12.00721352529697</v>
       </c>
       <c r="T35" t="n">
-        <v>2.306596915281954</v>
+        <v>2.306596915281952</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04215368434552967</v>
+        <v>0.04215368434552964</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2819276188274432</v>
+        <v>0.2819276188274429</v>
       </c>
       <c r="H36" t="n">
-        <v>2.722827266043991</v>
+        <v>2.722827266043989</v>
       </c>
       <c r="I36" t="n">
-        <v>9.706718455243109</v>
+        <v>9.706718455243102</v>
       </c>
       <c r="J36" t="n">
-        <v>26.63597735597348</v>
+        <v>26.63597735597346</v>
       </c>
       <c r="K36" t="n">
-        <v>45.52512781741217</v>
+        <v>45.52512781741214</v>
       </c>
       <c r="L36" t="n">
-        <v>61.21415250023059</v>
+        <v>61.21415250023055</v>
       </c>
       <c r="M36" t="n">
-        <v>71.43402868272538</v>
+        <v>71.43402868272534</v>
       </c>
       <c r="N36" t="n">
-        <v>73.32467486337084</v>
+        <v>73.32467486337079</v>
       </c>
       <c r="O36" t="n">
-        <v>67.0777523619838</v>
+        <v>67.07775236198376</v>
       </c>
       <c r="P36" t="n">
-        <v>53.83580994960185</v>
+        <v>53.83580994960181</v>
       </c>
       <c r="Q36" t="n">
-        <v>35.98781323839432</v>
+        <v>35.9878132383943</v>
       </c>
       <c r="R36" t="n">
-        <v>17.50424286018108</v>
+        <v>17.50424286018107</v>
       </c>
       <c r="S36" t="n">
-        <v>5.236681867255355</v>
+        <v>5.236681867255351</v>
       </c>
       <c r="T36" t="n">
-        <v>1.136366147817632</v>
+        <v>1.136366147817631</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01854786965970021</v>
+        <v>0.0185478696597002</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2363586450624091</v>
+        <v>0.236358645062409</v>
       </c>
       <c r="H37" t="n">
-        <v>2.10144322610033</v>
+        <v>2.101443226100329</v>
       </c>
       <c r="I37" t="n">
-        <v>7.107949071513179</v>
+        <v>7.107949071513175</v>
       </c>
       <c r="J37" t="n">
-        <v>16.71055620591233</v>
+        <v>16.71055620591232</v>
       </c>
       <c r="K37" t="n">
-        <v>27.46057712634171</v>
+        <v>27.46057712634169</v>
       </c>
       <c r="L37" t="n">
-        <v>35.14008437591491</v>
+        <v>35.14008437591489</v>
       </c>
       <c r="M37" t="n">
-        <v>37.05029197101019</v>
+        <v>37.05029197101016</v>
       </c>
       <c r="N37" t="n">
-        <v>36.16931883941396</v>
+        <v>36.16931883941394</v>
       </c>
       <c r="O37" t="n">
-        <v>33.40822012209399</v>
+        <v>33.40822012209397</v>
       </c>
       <c r="P37" t="n">
-        <v>28.58650376282082</v>
+        <v>28.5865037628208</v>
       </c>
       <c r="Q37" t="n">
-        <v>19.7918134515441</v>
+        <v>19.79181345154409</v>
       </c>
       <c r="R37" t="n">
-        <v>10.62754416798796</v>
+        <v>10.62754416798795</v>
       </c>
       <c r="S37" t="n">
-        <v>4.119086568951256</v>
+        <v>4.119086568951253</v>
       </c>
       <c r="T37" t="n">
-        <v>1.009896028903021</v>
+        <v>1.00989602890302</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01289228973067688</v>
+        <v>0.01289228973067687</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5269210543191211</v>
+        <v>0.5269210543191207</v>
       </c>
       <c r="H38" t="n">
-        <v>5.396330247545699</v>
+        <v>5.396330247545696</v>
       </c>
       <c r="I38" t="n">
-        <v>20.31412394663793</v>
+        <v>20.31412394663792</v>
       </c>
       <c r="J38" t="n">
-        <v>44.72176583401754</v>
+        <v>44.72176583401751</v>
       </c>
       <c r="K38" t="n">
-        <v>67.02633406334594</v>
+        <v>67.0263340633459</v>
       </c>
       <c r="L38" t="n">
-        <v>83.15209427946476</v>
+        <v>83.15209427946471</v>
       </c>
       <c r="M38" t="n">
-        <v>92.52272657921243</v>
+        <v>92.52272657921236</v>
       </c>
       <c r="N38" t="n">
-        <v>94.01984102479663</v>
+        <v>94.01984102479658</v>
       </c>
       <c r="O38" t="n">
-        <v>88.78026979091088</v>
+        <v>88.78026979091082</v>
       </c>
       <c r="P38" t="n">
-        <v>75.77190626240755</v>
+        <v>75.77190626240751</v>
       </c>
       <c r="Q38" t="n">
-        <v>56.90154600460402</v>
+        <v>56.90154600460399</v>
       </c>
       <c r="R38" t="n">
-        <v>33.09920467837352</v>
+        <v>33.0992046783735</v>
       </c>
       <c r="S38" t="n">
-        <v>12.00721352529698</v>
+        <v>12.00721352529697</v>
       </c>
       <c r="T38" t="n">
-        <v>2.306596915281954</v>
+        <v>2.306596915281952</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04215368434552967</v>
+        <v>0.04215368434552964</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2819276188274432</v>
+        <v>0.2819276188274429</v>
       </c>
       <c r="H39" t="n">
-        <v>2.722827266043991</v>
+        <v>2.722827266043989</v>
       </c>
       <c r="I39" t="n">
-        <v>9.706718455243109</v>
+        <v>9.706718455243102</v>
       </c>
       <c r="J39" t="n">
-        <v>26.63597735597348</v>
+        <v>26.63597735597346</v>
       </c>
       <c r="K39" t="n">
-        <v>45.52512781741217</v>
+        <v>45.52512781741214</v>
       </c>
       <c r="L39" t="n">
-        <v>61.21415250023059</v>
+        <v>61.21415250023055</v>
       </c>
       <c r="M39" t="n">
-        <v>71.43402868272538</v>
+        <v>71.43402868272534</v>
       </c>
       <c r="N39" t="n">
-        <v>73.32467486337084</v>
+        <v>73.32467486337079</v>
       </c>
       <c r="O39" t="n">
-        <v>67.0777523619838</v>
+        <v>67.07775236198376</v>
       </c>
       <c r="P39" t="n">
-        <v>53.83580994960185</v>
+        <v>53.83580994960181</v>
       </c>
       <c r="Q39" t="n">
-        <v>35.98781323839432</v>
+        <v>35.9878132383943</v>
       </c>
       <c r="R39" t="n">
-        <v>17.50424286018108</v>
+        <v>17.50424286018107</v>
       </c>
       <c r="S39" t="n">
-        <v>5.236681867255355</v>
+        <v>5.236681867255351</v>
       </c>
       <c r="T39" t="n">
-        <v>1.136366147817632</v>
+        <v>1.136366147817631</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01854786965970021</v>
+        <v>0.0185478696597002</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2363586450624091</v>
+        <v>0.236358645062409</v>
       </c>
       <c r="H40" t="n">
-        <v>2.10144322610033</v>
+        <v>2.101443226100329</v>
       </c>
       <c r="I40" t="n">
-        <v>7.107949071513179</v>
+        <v>7.107949071513175</v>
       </c>
       <c r="J40" t="n">
-        <v>16.71055620591233</v>
+        <v>16.71055620591232</v>
       </c>
       <c r="K40" t="n">
-        <v>27.46057712634171</v>
+        <v>27.46057712634169</v>
       </c>
       <c r="L40" t="n">
-        <v>35.14008437591491</v>
+        <v>35.14008437591489</v>
       </c>
       <c r="M40" t="n">
-        <v>37.05029197101019</v>
+        <v>37.05029197101016</v>
       </c>
       <c r="N40" t="n">
-        <v>36.16931883941396</v>
+        <v>36.16931883941394</v>
       </c>
       <c r="O40" t="n">
-        <v>33.40822012209399</v>
+        <v>33.40822012209397</v>
       </c>
       <c r="P40" t="n">
-        <v>28.58650376282082</v>
+        <v>28.5865037628208</v>
       </c>
       <c r="Q40" t="n">
-        <v>19.7918134515441</v>
+        <v>19.79181345154409</v>
       </c>
       <c r="R40" t="n">
-        <v>10.62754416798796</v>
+        <v>10.62754416798795</v>
       </c>
       <c r="S40" t="n">
-        <v>4.119086568951256</v>
+        <v>4.119086568951253</v>
       </c>
       <c r="T40" t="n">
-        <v>1.009896028903021</v>
+        <v>1.00989602890302</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01289228973067688</v>
+        <v>0.01289228973067687</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5269210543191211</v>
+        <v>0.5269210543191207</v>
       </c>
       <c r="H41" t="n">
-        <v>5.396330247545699</v>
+        <v>5.396330247545696</v>
       </c>
       <c r="I41" t="n">
-        <v>20.31412394663793</v>
+        <v>20.31412394663792</v>
       </c>
       <c r="J41" t="n">
-        <v>44.72176583401754</v>
+        <v>44.72176583401751</v>
       </c>
       <c r="K41" t="n">
-        <v>67.02633406334594</v>
+        <v>67.0263340633459</v>
       </c>
       <c r="L41" t="n">
-        <v>83.15209427946476</v>
+        <v>83.15209427946471</v>
       </c>
       <c r="M41" t="n">
-        <v>92.52272657921243</v>
+        <v>92.52272657921236</v>
       </c>
       <c r="N41" t="n">
-        <v>94.01984102479663</v>
+        <v>94.01984102479658</v>
       </c>
       <c r="O41" t="n">
-        <v>88.78026979091088</v>
+        <v>88.78026979091082</v>
       </c>
       <c r="P41" t="n">
-        <v>75.77190626240755</v>
+        <v>75.77190626240751</v>
       </c>
       <c r="Q41" t="n">
-        <v>56.90154600460402</v>
+        <v>56.90154600460399</v>
       </c>
       <c r="R41" t="n">
-        <v>33.09920467837352</v>
+        <v>33.0992046783735</v>
       </c>
       <c r="S41" t="n">
-        <v>12.00721352529698</v>
+        <v>12.00721352529697</v>
       </c>
       <c r="T41" t="n">
-        <v>2.306596915281954</v>
+        <v>2.306596915281952</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04215368434552967</v>
+        <v>0.04215368434552964</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2819276188274432</v>
+        <v>0.2819276188274429</v>
       </c>
       <c r="H42" t="n">
-        <v>2.722827266043991</v>
+        <v>2.722827266043989</v>
       </c>
       <c r="I42" t="n">
-        <v>9.706718455243109</v>
+        <v>9.706718455243102</v>
       </c>
       <c r="J42" t="n">
-        <v>26.63597735597348</v>
+        <v>26.63597735597346</v>
       </c>
       <c r="K42" t="n">
-        <v>45.52512781741217</v>
+        <v>45.52512781741214</v>
       </c>
       <c r="L42" t="n">
-        <v>61.21415250023059</v>
+        <v>61.21415250023055</v>
       </c>
       <c r="M42" t="n">
-        <v>71.43402868272538</v>
+        <v>71.43402868272534</v>
       </c>
       <c r="N42" t="n">
-        <v>73.32467486337084</v>
+        <v>73.32467486337079</v>
       </c>
       <c r="O42" t="n">
-        <v>67.0777523619838</v>
+        <v>67.07775236198376</v>
       </c>
       <c r="P42" t="n">
-        <v>53.83580994960185</v>
+        <v>53.83580994960181</v>
       </c>
       <c r="Q42" t="n">
-        <v>35.98781323839432</v>
+        <v>35.9878132383943</v>
       </c>
       <c r="R42" t="n">
-        <v>17.50424286018108</v>
+        <v>17.50424286018107</v>
       </c>
       <c r="S42" t="n">
-        <v>5.236681867255355</v>
+        <v>5.236681867255351</v>
       </c>
       <c r="T42" t="n">
-        <v>1.136366147817632</v>
+        <v>1.136366147817631</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01854786965970021</v>
+        <v>0.0185478696597002</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2363586450624091</v>
+        <v>0.236358645062409</v>
       </c>
       <c r="H43" t="n">
-        <v>2.10144322610033</v>
+        <v>2.101443226100329</v>
       </c>
       <c r="I43" t="n">
-        <v>7.107949071513179</v>
+        <v>7.107949071513175</v>
       </c>
       <c r="J43" t="n">
-        <v>16.71055620591233</v>
+        <v>16.71055620591232</v>
       </c>
       <c r="K43" t="n">
-        <v>27.46057712634171</v>
+        <v>27.46057712634169</v>
       </c>
       <c r="L43" t="n">
-        <v>35.14008437591491</v>
+        <v>35.14008437591489</v>
       </c>
       <c r="M43" t="n">
-        <v>37.05029197101019</v>
+        <v>37.05029197101016</v>
       </c>
       <c r="N43" t="n">
-        <v>36.16931883941396</v>
+        <v>36.16931883941394</v>
       </c>
       <c r="O43" t="n">
-        <v>33.40822012209399</v>
+        <v>33.40822012209397</v>
       </c>
       <c r="P43" t="n">
-        <v>28.58650376282082</v>
+        <v>28.5865037628208</v>
       </c>
       <c r="Q43" t="n">
-        <v>19.7918134515441</v>
+        <v>19.79181345154409</v>
       </c>
       <c r="R43" t="n">
-        <v>10.62754416798796</v>
+        <v>10.62754416798795</v>
       </c>
       <c r="S43" t="n">
-        <v>4.119086568951256</v>
+        <v>4.119086568951253</v>
       </c>
       <c r="T43" t="n">
-        <v>1.009896028903021</v>
+        <v>1.00989602890302</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01289228973067688</v>
+        <v>0.01289228973067687</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5269210543191273</v>
+        <v>0.5269210543191207</v>
       </c>
       <c r="H44" t="n">
-        <v>5.396330247545764</v>
+        <v>5.396330247545696</v>
       </c>
       <c r="I44" t="n">
-        <v>20.31412394663818</v>
+        <v>20.31412394663792</v>
       </c>
       <c r="J44" t="n">
-        <v>44.72176583401807</v>
+        <v>44.72176583401751</v>
       </c>
       <c r="K44" t="n">
-        <v>67.02633406334674</v>
+        <v>67.0263340633459</v>
       </c>
       <c r="L44" t="n">
-        <v>83.15209427946576</v>
+        <v>83.15209427946471</v>
       </c>
       <c r="M44" t="n">
-        <v>92.52272657921353</v>
+        <v>92.52272657921236</v>
       </c>
       <c r="N44" t="n">
-        <v>94.01984102479776</v>
+        <v>94.01984102479658</v>
       </c>
       <c r="O44" t="n">
-        <v>88.78026979091193</v>
+        <v>88.78026979091082</v>
       </c>
       <c r="P44" t="n">
-        <v>75.77190626240846</v>
+        <v>75.77190626240751</v>
       </c>
       <c r="Q44" t="n">
-        <v>56.9015460046047</v>
+        <v>56.90154600460399</v>
       </c>
       <c r="R44" t="n">
-        <v>33.09920467837391</v>
+        <v>33.0992046783735</v>
       </c>
       <c r="S44" t="n">
-        <v>12.00721352529713</v>
+        <v>12.00721352529697</v>
       </c>
       <c r="T44" t="n">
-        <v>2.306596915281981</v>
+        <v>2.306596915281952</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04215368434553018</v>
+        <v>0.04215368434552964</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2819276188274465</v>
+        <v>0.2819276188274429</v>
       </c>
       <c r="H45" t="n">
-        <v>2.722827266044023</v>
+        <v>2.722827266043989</v>
       </c>
       <c r="I45" t="n">
-        <v>9.706718455243225</v>
+        <v>9.706718455243102</v>
       </c>
       <c r="J45" t="n">
-        <v>26.6359773559738</v>
+        <v>26.63597735597346</v>
       </c>
       <c r="K45" t="n">
-        <v>45.52512781741271</v>
+        <v>45.52512781741214</v>
       </c>
       <c r="L45" t="n">
-        <v>61.21415250023131</v>
+        <v>61.21415250023055</v>
       </c>
       <c r="M45" t="n">
-        <v>71.43402868272624</v>
+        <v>71.43402868272534</v>
       </c>
       <c r="N45" t="n">
-        <v>73.32467486337171</v>
+        <v>73.32467486337079</v>
       </c>
       <c r="O45" t="n">
-        <v>67.07775236198461</v>
+        <v>67.07775236198376</v>
       </c>
       <c r="P45" t="n">
-        <v>53.83580994960248</v>
+        <v>53.83580994960181</v>
       </c>
       <c r="Q45" t="n">
-        <v>35.98781323839475</v>
+        <v>35.9878132383943</v>
       </c>
       <c r="R45" t="n">
-        <v>17.50424286018129</v>
+        <v>17.50424286018107</v>
       </c>
       <c r="S45" t="n">
-        <v>5.236681867255418</v>
+        <v>5.236681867255351</v>
       </c>
       <c r="T45" t="n">
-        <v>1.136366147817646</v>
+        <v>1.136366147817631</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01854786965970043</v>
+        <v>0.0185478696597002</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.236358645062412</v>
+        <v>0.236358645062409</v>
       </c>
       <c r="H46" t="n">
-        <v>2.101443226100355</v>
+        <v>2.101443226100329</v>
       </c>
       <c r="I46" t="n">
-        <v>7.107949071513264</v>
+        <v>7.107949071513175</v>
       </c>
       <c r="J46" t="n">
-        <v>16.71055620591252</v>
+        <v>16.71055620591232</v>
       </c>
       <c r="K46" t="n">
-        <v>27.46057712634204</v>
+        <v>27.46057712634169</v>
       </c>
       <c r="L46" t="n">
-        <v>35.14008437591533</v>
+        <v>35.14008437591489</v>
       </c>
       <c r="M46" t="n">
-        <v>37.05029197101063</v>
+        <v>37.05029197101016</v>
       </c>
       <c r="N46" t="n">
-        <v>36.16931883941439</v>
+        <v>36.16931883941394</v>
       </c>
       <c r="O46" t="n">
-        <v>33.40822012209439</v>
+        <v>33.40822012209397</v>
       </c>
       <c r="P46" t="n">
-        <v>28.58650376282116</v>
+        <v>28.5865037628208</v>
       </c>
       <c r="Q46" t="n">
-        <v>19.79181345154434</v>
+        <v>19.79181345154409</v>
       </c>
       <c r="R46" t="n">
-        <v>10.62754416798808</v>
+        <v>10.62754416798795</v>
       </c>
       <c r="S46" t="n">
-        <v>4.119086568951306</v>
+        <v>4.119086568951253</v>
       </c>
       <c r="T46" t="n">
-        <v>1.009896028903033</v>
+        <v>1.00989602890302</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01289228973067703</v>
+        <v>0.01289228973067687</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,13 +35407,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>39.37179272051225</v>
+        <v>39.3717927205122</v>
       </c>
       <c r="K11" t="n">
         <v>189.5499583685012</v>
       </c>
       <c r="L11" t="n">
-        <v>287.6475028161955</v>
+        <v>287.6475028161956</v>
       </c>
       <c r="M11" t="n">
         <v>335.4292240151673</v>
@@ -35425,10 +35425,10 @@
         <v>260.4667021680214</v>
       </c>
       <c r="P11" t="n">
-        <v>184.9903918993616</v>
+        <v>184.9903918993617</v>
       </c>
       <c r="Q11" t="n">
-        <v>60.96108866331659</v>
+        <v>60.9610886633166</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,10 +35489,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>131.1569348498797</v>
       </c>
       <c r="L12" t="n">
-        <v>131.1569348498797</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>417.1866119087574</v>
@@ -35644,13 +35644,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>39.37179272051225</v>
+        <v>39.3717927205122</v>
       </c>
       <c r="K14" t="n">
         <v>189.5499583685012</v>
       </c>
       <c r="L14" t="n">
-        <v>287.6475028161955</v>
+        <v>287.6475028161956</v>
       </c>
       <c r="M14" t="n">
         <v>335.4292240151673</v>
@@ -35662,10 +35662,10 @@
         <v>260.4667021680214</v>
       </c>
       <c r="P14" t="n">
-        <v>184.9903918993616</v>
+        <v>184.9903918993617</v>
       </c>
       <c r="Q14" t="n">
-        <v>60.96108866331659</v>
+        <v>60.9610886633166</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>50.05028678466573</v>
+        <v>50.05028678466572</v>
       </c>
       <c r="K16" t="n">
         <v>134.8647429150407</v>
@@ -35823,7 +35823,7 @@
         <v>156.887101168037</v>
       </c>
       <c r="Q16" t="n">
-        <v>62.20968908222827</v>
+        <v>62.20968908222825</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,13 +35881,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>39.37179272051225</v>
+        <v>39.3717927205122</v>
       </c>
       <c r="K17" t="n">
         <v>189.5499583685012</v>
       </c>
       <c r="L17" t="n">
-        <v>287.6475028161955</v>
+        <v>287.6475028161956</v>
       </c>
       <c r="M17" t="n">
         <v>335.4292240151673</v>
@@ -35899,10 +35899,10 @@
         <v>260.4667021680214</v>
       </c>
       <c r="P17" t="n">
-        <v>184.9903918993616</v>
+        <v>184.9903918993617</v>
       </c>
       <c r="Q17" t="n">
-        <v>60.96108866331659</v>
+        <v>60.9610886633166</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,13 +35963,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>131.1569348498797</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>311.7975913304508</v>
       </c>
       <c r="M18" t="n">
-        <v>417.1866119087574</v>
+        <v>236.5459554281863</v>
       </c>
       <c r="N18" t="n">
         <v>425.1947883666029</v>
@@ -36051,10 +36051,10 @@
         <v>87.24769996791872</v>
       </c>
       <c r="N19" t="n">
-        <v>90.36633850405182</v>
+        <v>90.36633850405184</v>
       </c>
       <c r="O19" t="n">
-        <v>67.97642815206501</v>
+        <v>67.97642815206503</v>
       </c>
       <c r="P19" t="n">
         <v>34.70852566150464</v>
@@ -36118,13 +36118,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>39.37179272051225</v>
+        <v>39.3717927205122</v>
       </c>
       <c r="K20" t="n">
         <v>189.5499583685012</v>
       </c>
       <c r="L20" t="n">
-        <v>287.6475028161955</v>
+        <v>287.6475028161956</v>
       </c>
       <c r="M20" t="n">
         <v>335.4292240151673</v>
@@ -36136,10 +36136,10 @@
         <v>260.4667021680214</v>
       </c>
       <c r="P20" t="n">
-        <v>184.9903918993616</v>
+        <v>184.9903918993617</v>
       </c>
       <c r="Q20" t="n">
-        <v>60.96108866331659</v>
+        <v>60.9610886633166</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>34.10396810999861</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>186.1735713104939</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>131.1569348498797</v>
       </c>
       <c r="M21" t="n">
-        <v>328.0660073381446</v>
+        <v>417.1866119087574</v>
       </c>
       <c r="N21" t="n">
         <v>425.1947883666029</v>
@@ -36288,10 +36288,10 @@
         <v>87.24769996791872</v>
       </c>
       <c r="N22" t="n">
-        <v>90.36633850405182</v>
+        <v>90.36633850405184</v>
       </c>
       <c r="O22" t="n">
-        <v>67.97642815206501</v>
+        <v>67.97642815206503</v>
       </c>
       <c r="P22" t="n">
         <v>34.70852566150464</v>
@@ -36355,13 +36355,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>44.06248869945509</v>
+        <v>39.3717927205122</v>
       </c>
       <c r="K23" t="n">
-        <v>184.8592623895586</v>
+        <v>189.5499583685012</v>
       </c>
       <c r="L23" t="n">
-        <v>287.6475028161955</v>
+        <v>287.6475028161956</v>
       </c>
       <c r="M23" t="n">
         <v>335.4292240151673</v>
@@ -36373,10 +36373,10 @@
         <v>260.4667021680214</v>
       </c>
       <c r="P23" t="n">
-        <v>184.9903918993616</v>
+        <v>184.9903918993617</v>
       </c>
       <c r="Q23" t="n">
-        <v>60.96108866331659</v>
+        <v>60.9610886633166</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36440,10 +36440,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>311.7975913304507</v>
+        <v>131.1569348498797</v>
       </c>
       <c r="M24" t="n">
-        <v>236.5459554281866</v>
+        <v>417.1866119087574</v>
       </c>
       <c r="N24" t="n">
         <v>425.1947883666029</v>
@@ -36525,10 +36525,10 @@
         <v>87.24769996791872</v>
       </c>
       <c r="N25" t="n">
-        <v>90.36633850405182</v>
+        <v>90.36633850405184</v>
       </c>
       <c r="O25" t="n">
-        <v>67.97642815206501</v>
+        <v>67.97642815206503</v>
       </c>
       <c r="P25" t="n">
         <v>34.70852566150464</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>186.1294043848909</v>
+        <v>186.1294043848914</v>
       </c>
       <c r="K26" t="n">
-        <v>331.6168740539375</v>
+        <v>331.6168740539376</v>
       </c>
       <c r="L26" t="n">
-        <v>429.7144185016318</v>
+        <v>429.7144185016319</v>
       </c>
       <c r="M26" t="n">
         <v>477.4961397006036</v>
@@ -36607,16 +36607,16 @@
         <v>467.2498210920202</v>
       </c>
       <c r="O26" t="n">
-        <v>402.5336178534577</v>
+        <v>402.5336178534578</v>
       </c>
       <c r="P26" t="n">
         <v>327.057307584798</v>
       </c>
       <c r="Q26" t="n">
-        <v>203.0280043487529</v>
+        <v>203.028004348753</v>
       </c>
       <c r="R26" t="n">
-        <v>33.31529766293274</v>
+        <v>33.31529766293278</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>34.10396810999861</v>
+        <v>34.10396810999862</v>
       </c>
       <c r="K27" t="n">
         <v>186.1735713104939</v>
       </c>
       <c r="L27" t="n">
-        <v>311.7975913304507</v>
+        <v>311.7975913304508</v>
       </c>
       <c r="M27" t="n">
         <v>417.1866119087574</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>69.93862696356973</v>
       </c>
       <c r="K28" t="n">
         <v>12.68616740850834</v>
       </c>
       <c r="L28" t="n">
-        <v>72.60121460492417</v>
+        <v>214.6681302903605</v>
       </c>
       <c r="M28" t="n">
-        <v>229.314615653355</v>
+        <v>171.7341765682351</v>
       </c>
       <c r="N28" t="n">
-        <v>102.7245263825022</v>
+        <v>90.36633850405184</v>
       </c>
       <c r="O28" t="n">
-        <v>210.0433438375013</v>
+        <v>67.97642815206503</v>
       </c>
       <c r="P28" t="n">
         <v>176.775441346941</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.09802926113224</v>
+        <v>82.09802926113227</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,7 +36835,7 @@
         <v>331.6168740539375</v>
       </c>
       <c r="L29" t="n">
-        <v>429.7144185016318</v>
+        <v>429.7144185016309</v>
       </c>
       <c r="M29" t="n">
         <v>477.4961397006036</v>
@@ -36844,16 +36844,16 @@
         <v>467.2498210920202</v>
       </c>
       <c r="O29" t="n">
-        <v>402.5336178534577</v>
+        <v>402.5336178534578</v>
       </c>
       <c r="P29" t="n">
         <v>327.057307584798</v>
       </c>
       <c r="Q29" t="n">
-        <v>203.0280043487529</v>
+        <v>203.028004348753</v>
       </c>
       <c r="R29" t="n">
-        <v>33.31529766293272</v>
+        <v>33.31529766293278</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>34.10396810999861</v>
+        <v>34.10396810999862</v>
       </c>
       <c r="K30" t="n">
         <v>186.1735713104939</v>
       </c>
       <c r="L30" t="n">
-        <v>311.7975913304507</v>
+        <v>311.7975913304508</v>
       </c>
       <c r="M30" t="n">
         <v>417.1866119087574</v>
@@ -36987,25 +36987,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>69.93862696356973</v>
       </c>
       <c r="K31" t="n">
-        <v>12.68616740850834</v>
+        <v>154.7530830939447</v>
       </c>
       <c r="L31" t="n">
-        <v>214.6681302903605</v>
+        <v>97.11880478093641</v>
       </c>
       <c r="M31" t="n">
-        <v>229.314615653355</v>
+        <v>229.3146156533551</v>
       </c>
       <c r="N31" t="n">
-        <v>184.8225556436351</v>
+        <v>232.4332541894882</v>
       </c>
       <c r="O31" t="n">
-        <v>67.97642815206501</v>
+        <v>67.97642815206503</v>
       </c>
       <c r="P31" t="n">
-        <v>176.7754413469409</v>
+        <v>34.70852566150464</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>186.1294043848915</v>
+        <v>186.1294043848914</v>
       </c>
       <c r="K32" t="n">
         <v>331.6168740539375</v>
@@ -37075,22 +37075,22 @@
         <v>429.7144185016319</v>
       </c>
       <c r="M32" t="n">
-        <v>477.4961397006037</v>
+        <v>477.4961397006036</v>
       </c>
       <c r="N32" t="n">
         <v>467.2498210920203</v>
       </c>
       <c r="O32" t="n">
-        <v>402.5336178534578</v>
+        <v>402.5336178534577</v>
       </c>
       <c r="P32" t="n">
-        <v>327.0573075847981</v>
+        <v>327.057307584798</v>
       </c>
       <c r="Q32" t="n">
-        <v>203.028004348753</v>
+        <v>203.0280043487529</v>
       </c>
       <c r="R32" t="n">
-        <v>33.3152976629328</v>
+        <v>33.31529766293275</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>34.10396810999863</v>
+        <v>34.10396810999862</v>
       </c>
       <c r="K33" t="n">
         <v>186.1735713104939</v>
@@ -37154,16 +37154,16 @@
         <v>311.7975913304508</v>
       </c>
       <c r="M33" t="n">
-        <v>417.1866119087575</v>
+        <v>417.1866119087574</v>
       </c>
       <c r="N33" t="n">
-        <v>443.7825748994165</v>
+        <v>443.7825748994164</v>
       </c>
       <c r="O33" t="n">
-        <v>337.6632260764492</v>
+        <v>337.6632260764491</v>
       </c>
       <c r="P33" t="n">
-        <v>254.4120421061645</v>
+        <v>254.4120421061644</v>
       </c>
       <c r="Q33" t="n">
         <v>117.9859627498064</v>
@@ -37227,25 +37227,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>25.04435528695794</v>
+        <v>154.7530830939447</v>
       </c>
       <c r="L34" t="n">
-        <v>72.60121460492419</v>
+        <v>214.6681302903605</v>
       </c>
       <c r="M34" t="n">
-        <v>87.24769996791875</v>
+        <v>87.24769996791872</v>
       </c>
       <c r="N34" t="n">
         <v>232.4332541894882</v>
       </c>
       <c r="O34" t="n">
-        <v>210.0433438375014</v>
+        <v>67.97642815206503</v>
       </c>
       <c r="P34" t="n">
-        <v>176.775441346941</v>
+        <v>129.1647428010871</v>
       </c>
       <c r="Q34" t="n">
-        <v>82.09802926113228</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>44.06248869945512</v>
+        <v>44.06248869945509</v>
       </c>
       <c r="K35" t="n">
-        <v>189.5499583685013</v>
+        <v>189.5499583685012</v>
       </c>
       <c r="L35" t="n">
         <v>287.6475028161956</v>
@@ -37315,16 +37315,16 @@
         <v>335.4292240151673</v>
       </c>
       <c r="N35" t="n">
-        <v>325.182905406584</v>
+        <v>325.1829054065839</v>
       </c>
       <c r="O35" t="n">
-        <v>260.4667021680215</v>
+        <v>260.4667021680214</v>
       </c>
       <c r="P35" t="n">
         <v>184.9903918993617</v>
       </c>
       <c r="Q35" t="n">
-        <v>60.96108866331664</v>
+        <v>60.9610886633166</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37388,19 +37388,19 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>134.662990772916</v>
+        <v>134.6629907729161</v>
       </c>
       <c r="M36" t="n">
-        <v>417.1866119087575</v>
+        <v>417.1866119087574</v>
       </c>
       <c r="N36" t="n">
         <v>426.3794284225094</v>
       </c>
       <c r="O36" t="n">
-        <v>337.6632260764492</v>
+        <v>337.6632260764491</v>
       </c>
       <c r="P36" t="n">
-        <v>254.4120421061645</v>
+        <v>254.4120421061644</v>
       </c>
       <c r="Q36" t="n">
         <v>117.9859627498064</v>
@@ -37464,22 +37464,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>12.68616740850836</v>
+        <v>12.68616740850834</v>
       </c>
       <c r="L37" t="n">
-        <v>72.60121460492419</v>
+        <v>72.60121460492417</v>
       </c>
       <c r="M37" t="n">
-        <v>87.24769996791875</v>
+        <v>87.24769996791872</v>
       </c>
       <c r="N37" t="n">
-        <v>90.36633850405185</v>
+        <v>90.36633850405184</v>
       </c>
       <c r="O37" t="n">
-        <v>67.97642815206505</v>
+        <v>67.97642815206503</v>
       </c>
       <c r="P37" t="n">
-        <v>34.70852566150466</v>
+        <v>34.70852566150464</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,10 +37540,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>44.06248869945512</v>
+        <v>44.06248869945509</v>
       </c>
       <c r="K38" t="n">
-        <v>189.5499583685013</v>
+        <v>189.5499583685012</v>
       </c>
       <c r="L38" t="n">
         <v>287.6475028161956</v>
@@ -37552,16 +37552,16 @@
         <v>335.4292240151673</v>
       </c>
       <c r="N38" t="n">
-        <v>325.182905406584</v>
+        <v>325.1829054065839</v>
       </c>
       <c r="O38" t="n">
-        <v>260.4667021680215</v>
+        <v>260.4667021680214</v>
       </c>
       <c r="P38" t="n">
         <v>184.9903918993617</v>
       </c>
       <c r="Q38" t="n">
-        <v>60.96108866331664</v>
+        <v>60.9610886633166</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37625,19 +37625,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>134.662990772916</v>
+        <v>311.7975913304508</v>
       </c>
       <c r="M39" t="n">
-        <v>417.1866119087575</v>
+        <v>240.0520113512228</v>
       </c>
       <c r="N39" t="n">
         <v>426.3794284225094</v>
       </c>
       <c r="O39" t="n">
-        <v>337.6632260764492</v>
+        <v>337.6632260764491</v>
       </c>
       <c r="P39" t="n">
-        <v>254.4120421061645</v>
+        <v>254.4120421061644</v>
       </c>
       <c r="Q39" t="n">
         <v>117.9859627498064</v>
@@ -37701,22 +37701,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>12.68616740850836</v>
+        <v>12.68616740850834</v>
       </c>
       <c r="L40" t="n">
-        <v>72.60121460492419</v>
+        <v>72.60121460492417</v>
       </c>
       <c r="M40" t="n">
-        <v>87.24769996791875</v>
+        <v>87.24769996791872</v>
       </c>
       <c r="N40" t="n">
-        <v>90.36633850405185</v>
+        <v>90.36633850405184</v>
       </c>
       <c r="O40" t="n">
-        <v>67.97642815206505</v>
+        <v>67.97642815206503</v>
       </c>
       <c r="P40" t="n">
-        <v>34.70852566150466</v>
+        <v>34.70852566150464</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,10 +37777,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>44.06248869945512</v>
+        <v>44.06248869945509</v>
       </c>
       <c r="K41" t="n">
-        <v>189.5499583685013</v>
+        <v>189.5499583685012</v>
       </c>
       <c r="L41" t="n">
         <v>287.6475028161956</v>
@@ -37789,22 +37789,22 @@
         <v>335.4292240151673</v>
       </c>
       <c r="N41" t="n">
-        <v>356.0426597712681</v>
+        <v>325.1829054065839</v>
       </c>
       <c r="O41" t="n">
-        <v>260.4667021680215</v>
+        <v>264.52567444981</v>
       </c>
       <c r="P41" t="n">
         <v>184.9903918993617</v>
       </c>
       <c r="Q41" t="n">
-        <v>60.96108866331664</v>
+        <v>60.9610886633166</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>26.80078208289615</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -37859,22 +37859,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>157.7290826832545</v>
       </c>
       <c r="L42" t="n">
-        <v>157.7290826832539</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>417.1866119087575</v>
+        <v>417.1866119087574</v>
       </c>
       <c r="N42" t="n">
-        <v>434.1730908768557</v>
+        <v>434.1730908768558</v>
       </c>
       <c r="O42" t="n">
-        <v>337.6632260764492</v>
+        <v>337.6632260764491</v>
       </c>
       <c r="P42" t="n">
-        <v>254.4120421061645</v>
+        <v>254.4120421061644</v>
       </c>
       <c r="Q42" t="n">
         <v>117.9859627498064</v>
@@ -37938,22 +37938,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>12.68616740850836</v>
+        <v>12.68616740850834</v>
       </c>
       <c r="L43" t="n">
-        <v>72.60121460492419</v>
+        <v>72.60121460492417</v>
       </c>
       <c r="M43" t="n">
-        <v>87.24769996791875</v>
+        <v>87.24769996791872</v>
       </c>
       <c r="N43" t="n">
-        <v>90.36633850405185</v>
+        <v>90.36633850405184</v>
       </c>
       <c r="O43" t="n">
-        <v>67.97642815206505</v>
+        <v>67.97642815206503</v>
       </c>
       <c r="P43" t="n">
-        <v>34.70852566150466</v>
+        <v>34.70852566150464</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>30.85975436468379</v>
       </c>
       <c r="J44" t="n">
-        <v>44.06248869945566</v>
+        <v>44.06248869945509</v>
       </c>
       <c r="K44" t="n">
-        <v>189.5499583685021</v>
+        <v>189.5499583685012</v>
       </c>
       <c r="L44" t="n">
-        <v>287.6475028161966</v>
+        <v>287.6475028161956</v>
       </c>
       <c r="M44" t="n">
-        <v>335.4292240151684</v>
+        <v>335.4292240151673</v>
       </c>
       <c r="N44" t="n">
-        <v>356.0426597712619</v>
+        <v>325.1829054065839</v>
       </c>
       <c r="O44" t="n">
-        <v>260.4667021680226</v>
+        <v>260.4667021680214</v>
       </c>
       <c r="P44" t="n">
-        <v>184.9903918993626</v>
+        <v>184.9903918993617</v>
       </c>
       <c r="Q44" t="n">
-        <v>60.96108866331731</v>
+        <v>60.9610886633166</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38099,22 +38099,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>311.7975913304515</v>
+        <v>157.7290826832537</v>
       </c>
       <c r="M45" t="n">
-        <v>263.1181032615581</v>
+        <v>417.1866119087574</v>
       </c>
       <c r="N45" t="n">
-        <v>434.1730908768557</v>
+        <v>434.1730908768556</v>
       </c>
       <c r="O45" t="n">
-        <v>337.66322607645</v>
+        <v>337.6632260764491</v>
       </c>
       <c r="P45" t="n">
-        <v>254.4120421061651</v>
+        <v>254.4120421061644</v>
       </c>
       <c r="Q45" t="n">
-        <v>117.9859627498068</v>
+        <v>117.9859627498064</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,22 +38175,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>12.68616740850869</v>
+        <v>12.68616740850834</v>
       </c>
       <c r="L46" t="n">
-        <v>72.60121460492462</v>
+        <v>72.60121460492417</v>
       </c>
       <c r="M46" t="n">
-        <v>87.2476999679192</v>
+        <v>87.24769996791872</v>
       </c>
       <c r="N46" t="n">
-        <v>90.36633850405229</v>
+        <v>90.36633850405184</v>
       </c>
       <c r="O46" t="n">
-        <v>67.97642815206545</v>
+        <v>67.97642815206503</v>
       </c>
       <c r="P46" t="n">
-        <v>34.708525661505</v>
+        <v>34.70852566150464</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
